--- a/debug.xlsx
+++ b/debug.xlsx
@@ -15,435 +15,186 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="60">
   <si>
     <t>#*</t>
   </si>
   <si>
-    <t>IISTERIUS</t>
+    <t>#</t>
   </si>
   <si>
-    <t>DI</t>
+    <t>TIFIKASI Rp28 MILIAR</t>
   </si>
   <si>
-    <t>ARAFAH,</t>
+    <t>ANDHI PRAMONO SEMBUNYIKAN DANA GRATIFIKASI DENGAN MENGGUNAKAN REKENING MERTUA</t>
   </si>
   <si>
-    <t>KELUARGA</t>
+    <t>DUA KUBAH LAVA AKTIF DI PUNCAK MERAPI SERING BERGUGURAN, SUHU CAPAI 500 DERAJAT CELCIUS</t>
   </si>
   <si>
-    <t>MINTA</t>
+    <t>LRT JABODEBEK UJI COBA 12 JULI 2023, KAI PASTIKAN KEAMANAN PENUMPANG MESKI TANPA MASINIS</t>
   </si>
   <si>
-    <t>BANTUAN</t>
+    <t>IKUTI BERITA TERKINI DENGAN PEMBAHASAN MENDALAM DI</t>
   </si>
   <si>
-    <t>JOKOWI*</t>
+    <t>MBAHASAN MENDALAM DI SINDONEWS.COM</t>
   </si>
   <si>
-    <t>BMKG</t>
+    <t>SURVEI LSN: ELEKTABILITAS PARTAI PERINDO TEMBUS 5,1 PERSEN, UNGGULI BEBERAPA PARPOL PARLEMEN</t>
   </si>
   <si>
-    <t>PRAKIRAKAN</t>
+    <t>DIAM-DIAM POLANDIA KIRIM 12 HELIKOPTER SERANG MIL MI-24 KE UKRAINA</t>
   </si>
   <si>
-    <t>ANGIN</t>
+    <t>IKUTI BERITA TERKINI DAN TERCEPAT DI OKEZONECOM</t>
   </si>
   <si>
-    <t>30</t>
+    <t>PM BELANDA MARK RUTTE MENGUNDURKAN DIRI PASCA KOALISI PARTAINYA GAGAL SEPAKAT TENTANG PEMBATASAN IMIGRAN</t>
   </si>
   <si>
-    <t>KNOT</t>
+    <t>AKHIR PEKAN, RAGUNAN DIKUNJUNGI 55 RIBU WISATAWAN</t>
   </si>
   <si>
-    <t>LANDA</t>
+    <t>DEKLARASI DUKUNG GANJAR PRANOWO SEBAGAI BACAPRES, PULUHAN RIBU EMAK-EMAK JAWA TIMUR TITIPKAN 9 MANDAT UNTUK GANJAR</t>
   </si>
   <si>
-    <t>LAUT</t>
+    <t>IKUTI BERITA-BERITA EKSKLUSIF iNEWS, SUBSCRIBE CHANNEL YOUTUBE @OfficialiNews</t>
   </si>
   <si>
-    <t>BALI,</t>
+    <t>BMKG: JAKBAR, JAKSEL, DAN JAKTIM BERPOTENSI DIGUYUR HUJAN DISERTAI PETIR MINGGU SORE</t>
   </si>
   <si>
-    <t>WARGA</t>
+    <t>PENGANTIN HILANG PULANG KE RUMAH DI BOGOR BAWA MANTAN KEKASIH LANGSUNG DICERAI SUAMI</t>
   </si>
   <si>
-    <t>HINGGA</t>
+    <t>PRESIDEN JOKO WIDODO JENGUK CAK NUN YANG DIRAWAT DI RSUP DR SARDJITO YOGYAKARTA</t>
   </si>
   <si>
-    <t>NELAYAN</t>
+    <t>KORBAN LONGSOR TERAKHIR DI KARANGASEM BALI DITEMUKAN, TOTAL DUA ORANG TEWAS</t>
   </si>
   <si>
-    <t>HARUS</t>
+    <t>SATU NELAYAN CIDAUN CIANJUR YANG HILANG DITEMUKAN MENINGGAL, SATU LAINNYA MASIH DICARI</t>
   </si>
   <si>
-    <t>WASPADA*</t>
+    <t>PEREDARAN DOLAR PALSU SENILAI RP33 TRILIUN TERBONGKAR DI SUKABUMI, 2 PENGEDAR DITANGKAP</t>
   </si>
   <si>
-    <t>POLDA</t>
+    <t>PT LIB AKAN TINDAK TEGAS PELAKU RASISME DI LIGA 1</t>
   </si>
   <si>
-    <t>METRO</t>
+    <t>RICUH LAGA PSM MAKASSAR VS DEWA UNITED, SUPORTER DAN POLISI TERLUKA</t>
   </si>
   <si>
-    <t>JAYA</t>
+    <t>KKHI MAKKAH PULANGKAN JEMAAH HAJI LANSIA KE TANAH AIR LEWAT MEKANISME TANAZUL</t>
   </si>
   <si>
-    <t>GELAR</t>
+    <t>JEMAAH HAJI ASAL MAJALENGKA HILANG MISTERIUS DI ARAFAH, KELUARGA MINTA BANTUAN JOKOWI</t>
   </si>
   <si>
-    <t>OPERASI</t>
+    <t>BMKG PRAKIRAKAN ANGIN 30 KNOT LANDA LAUT BALI, WARGA HINGGA NELAYAN HARUS WASPADA</t>
   </si>
   <si>
-    <t>PATUH</t>
+    <t>POLDA METRO JAYA GELAR OPERASI PATUH JAYA MULAI BESOK SASAR PENGENDARA LAWAN ARUS</t>
   </si>
   <si>
-    <t>MULAI</t>
+    <t>JABATAN RIDWAN KAMIL BERAKHIR SEPTEMBER, DPRD UMUMKAN CALON PJ GUBERNUR JABAR BULAN DEPAN</t>
   </si>
   <si>
-    <t>BESOK</t>
+    <t>PRAJURIT TNI AD DARI SATGAS YONIF 143/TWEJ POS OKBIBAB BANTU PROSES PEMAKAMAN</t>
   </si>
   <si>
-    <t>SASAR</t>
+    <t>ING MISTERIUS DI ARAFAH KELUARGA MINTA BANTUAN JOKOWI</t>
   </si>
   <si>
-    <t>PENGENDARA</t>
+    <t>POLDA METRO JAYA GELAR OPERASI PATUH JAYA MULAI BESOK, SASAR PENGENDARA LAWAN ARUS</t>
   </si>
   <si>
-    <t>LAWAN</t>
+    <t>JABATAN RIDWAN KAMIL BERAKHIR SEPTEMBER; DPRD UMUMKAN CALON PJ GUBERNUR JABAR BULAN DEPAN</t>
   </si>
   <si>
-    <t>ARUS*</t>
+    <t>PRAJURIT TNI AD DARI SATGAS YONIF 143/TWEJ POS OKBIBAB BANTU PROSES PEMAKAMAN WARGA DI PEGUNUNGAN BINTANG, PAPUA SEBAGAI BENTUK BELASUNGKAWA TERHADAP WARGA</t>
   </si>
   <si>
-    <t>JABATAN</t>
+    <t>KEMENTERIAN PUPR SIAPKAN JEMBATAN BAILEY UNTUK PENGHUBUNG LUMAJANG-MALANG</t>
   </si>
   <si>
-    <t>RIDWAN</t>
+    <t>PEMKAB LUMAJANG TETAPKAN STATUS TANGGAP DARURAT BENCANA BANJIR DAN LONGSOR</t>
   </si>
   <si>
-    <t>KAMIL</t>
+    <t>JEMBATAN PERMANEN BAKAL DIBANGUN USAI AKSES MALANG LUMAJANG TERPUTUS</t>
   </si>
   <si>
-    <t>BERAKHIR</t>
+    <t>13 WNI TERDUGA KORBAN TPPO DI MYANMAR TIBA DI INDONESIA</t>
   </si>
   <si>
-    <t>SEPTEMBER,</t>
+    <t>KEJAGUNG GELEDAH TIGA KANTOR DI MEDAN TERKAIT KASUS EKSPOR CPO</t>
   </si>
   <si>
-    <t>DPRD</t>
+    <t>BACA BERITA CEPAT DAN LENGKAP DI INEWS.ID</t>
   </si>
   <si>
-    <t>UMUMKAN</t>
+    <t>KPK CECAR ISTRI ANDHI PRAMONO SOAL SUMBER UANG SUAMINYA</t>
   </si>
   <si>
-    <t>CALON</t>
+    <t>KPK YAKIN PETINGGI BEA CUKAI TAHU ANDHI PRAMONO TERIMA GRATIFIKASI Rp28 MILIAR</t>
   </si>
   <si>
-    <t>PJ</t>
+    <t>IKUTI BERITA TERKINI DENGAN PEMBAHASAN MENDALAM DI SINDONEWS.COM</t>
   </si>
   <si>
-    <t>GUBERNUR</t>
+    <t>KPK</t>
   </si>
   <si>
-    <t>JABAR</t>
+    <t>N</t>
   </si>
   <si>
-    <t>BULAN</t>
+    <t>PRAJURIT TNI AD DARI SATGAS YONIF 143/TWEJ POS OKBIBAB BANTU PROSES</t>
   </si>
   <si>
-    <t>DEPAN*</t>
+    <t>ARI SATGAS YONIF 143/TWEJ POS OKBIBAB BANTU PROSES PEMAKAMAN WARGA DI PEGUNUNGAN BINTANG, PAPUA SEBAGAI BENTUK BELASUNGKAWA TERHADAP WARGA</t>
   </si>
   <si>
-    <t>PRAJURIT</t>
+    <t>PEREDARAN DOLAR PALSU SENILAI RP33 TRILIUN TERBONGKAR DI SUKABUMI 2 PENGEDAR DITANGKAP</t>
   </si>
   <si>
-    <t>TNI</t>
+    <t>KKHI MAKKAH PULANGKAN 1 JEMAAH HAJI LANSIA KE TANAH AIR LEWAT MEKANISME TANAZUL</t>
   </si>
   <si>
-    <t>AD</t>
+    <t>DUA KUBAH LAVA AKTIF DI PUNCAK MERAPI SERING BERGUGURAN SUHU CAPAI 500 DERAJAT CELCIUS</t>
   </si>
   <si>
-    <t>DARI</t>
+    <t>SURVEI LSN: ELEKTABILITAS PARTAI PERINDO TEMBUS 5,1 PERSEN UNGGULI BEBERAPA PARPOL PARLEMEN</t>
   </si>
   <si>
-    <t>SATGAS</t>
+    <t>DEKLARASI DUKUNG GANJAR PRANOWO SEBAGAI BACAPRES PULUHAN RIBU EMAK-EMAK JAWA TIMUR TITIPKAN 9 MANDAT UNTUK GANJAR</t>
   </si>
   <si>
-    <t>YONIF</t>
+    <t>POLDA METRO JAYA GELAR OPERASI PATUH JAYA MULAI BESOK,</t>
   </si>
   <si>
-    <t>143/TWEJ</t>
+    <t>AKHIR DI KARANGASEM BALI DITEMUKAN, TOTAL DUA ORANG TEWAS</t>
   </si>
   <si>
-    <t>POS</t>
+    <t>KPK YAKIN PETINGGI BEA CUKAI TAHU ANDHI PRAMONO TERIMA GRATIFIKASI Rp28</t>
   </si>
   <si>
-    <t>OKBIBAB</t>
+    <t>MI, 2 PENGEDAR DITANGKAP</t>
   </si>
   <si>
-    <t>BANTU</t>
+    <t>IKUTI BERITA TERKINI DAN TERCEPAT DI OKEZONE COM</t>
   </si>
   <si>
-    <t>PROSES</t>
-  </si>
-  <si>
-    <t>PEMAKAMAN*</t>
-  </si>
-  <si>
-    <t>STERIUS</t>
-  </si>
-  <si>
-    <t>BESOK,</t>
-  </si>
-  <si>
-    <t>SEPTEMBER</t>
-  </si>
-  <si>
-    <t>PEMAKAMAN</t>
-  </si>
-  <si>
-    <t>PEGUNUNGAN</t>
-  </si>
-  <si>
-    <t>BINTANG,</t>
-  </si>
-  <si>
-    <t>PAPUA</t>
-  </si>
-  <si>
-    <t>SEBAGAI</t>
-  </si>
-  <si>
-    <t>BENTUK</t>
-  </si>
-  <si>
-    <t>BELASUNGKAWA</t>
-  </si>
-  <si>
-    <t>TERHADAP</t>
-  </si>
-  <si>
-    <t>WARGA*</t>
-  </si>
-  <si>
-    <t>KEMENTERIAN</t>
-  </si>
-  <si>
-    <t>PUPR</t>
-  </si>
-  <si>
-    <t>SIAPKAN</t>
-  </si>
-  <si>
-    <t>JEMBATAN</t>
-  </si>
-  <si>
-    <t>BAILEY</t>
-  </si>
-  <si>
-    <t>UNTUK</t>
-  </si>
-  <si>
-    <t>PENGHUBUNG</t>
-  </si>
-  <si>
-    <t>LUMAJANG-MALANG*</t>
-  </si>
-  <si>
-    <t>PEMKAB</t>
-  </si>
-  <si>
-    <t>LUMAJANG</t>
-  </si>
-  <si>
-    <t>TETAPKAN</t>
-  </si>
-  <si>
-    <t>STATUS</t>
-  </si>
-  <si>
-    <t>TANGGAP</t>
-  </si>
-  <si>
-    <t>DARURAT</t>
-  </si>
-  <si>
-    <t>BENCANA</t>
-  </si>
-  <si>
-    <t>BANJIR</t>
-  </si>
-  <si>
-    <t>DAN</t>
-  </si>
-  <si>
-    <t>LONGSOR*</t>
-  </si>
-  <si>
-    <t>PERMANEN</t>
-  </si>
-  <si>
-    <t>BAKAL</t>
-  </si>
-  <si>
-    <t>DIBANGUN</t>
-  </si>
-  <si>
-    <t>USAI</t>
-  </si>
-  <si>
-    <t>AKSES</t>
-  </si>
-  <si>
-    <t>MALANG*</t>
-  </si>
-  <si>
-    <t>PROSES*</t>
-  </si>
-  <si>
-    <t>RI</t>
-  </si>
-  <si>
-    <t>MALANG</t>
-  </si>
-  <si>
-    <t>TERPUTUS*</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>WNI</t>
-  </si>
-  <si>
-    <t>TERDUGA</t>
-  </si>
-  <si>
-    <t>KORBAN</t>
-  </si>
-  <si>
-    <t>TPPO</t>
-  </si>
-  <si>
-    <t>MYANMAR</t>
-  </si>
-  <si>
-    <t>TIBA</t>
-  </si>
-  <si>
-    <t>INDONESIA*</t>
-  </si>
-  <si>
-    <t>KEJAGUNG</t>
-  </si>
-  <si>
-    <t>GELEDAH</t>
-  </si>
-  <si>
-    <t>TIGA</t>
-  </si>
-  <si>
-    <t>KANTOR</t>
-  </si>
-  <si>
-    <t>MEDAN</t>
-  </si>
-  <si>
-    <t>TERKAIT</t>
-  </si>
-  <si>
-    <t>KASUS</t>
-  </si>
-  <si>
-    <t>EKSPOR</t>
-  </si>
-  <si>
-    <t>CPO*</t>
+    <t>JN USAI AKSES MALANG LUMAJANG TERPUTUS</t>
   </si>
   <si>
     <t>BACA</t>
   </si>
   <si>
-    <t>BERITA</t>
+    <t>OPTER SERANG WIL Ma-24 KE UKRAINA</t>
   </si>
   <si>
-    <t>CEPAT</t>
-  </si>
-  <si>
-    <t>LENGKAP</t>
-  </si>
-  <si>
-    <t>INEWS.ID*</t>
-  </si>
-  <si>
-    <t>KPK</t>
-  </si>
-  <si>
-    <t>CECAR</t>
-  </si>
-  <si>
-    <t>ISTRI</t>
-  </si>
-  <si>
-    <t>ANDHI</t>
-  </si>
-  <si>
-    <t>PRAMONO</t>
-  </si>
-  <si>
-    <t>SOAL</t>
-  </si>
-  <si>
-    <t>SUMBER</t>
-  </si>
-  <si>
-    <t>UANG</t>
-  </si>
-  <si>
-    <t>SUAMINYA*</t>
-  </si>
-  <si>
-    <t>YAKIN</t>
-  </si>
-  <si>
-    <t>PETINGGI</t>
-  </si>
-  <si>
-    <t>BEA</t>
-  </si>
-  <si>
-    <t>CUKAI</t>
-  </si>
-  <si>
-    <t>TAHU</t>
-  </si>
-  <si>
-    <t>TERIMA</t>
-  </si>
-  <si>
-    <t>GRATIFIKASI</t>
-  </si>
-  <si>
-    <t>Rp28</t>
-  </si>
-  <si>
-    <t>MILIAR*</t>
-  </si>
-  <si>
-    <t>SEMBUNYIKAN</t>
-  </si>
-  <si>
-    <t>DANA</t>
-  </si>
-  <si>
-    <t>DENGAN</t>
-  </si>
-  <si>
-    <t>MENGGUNAKAN</t>
-  </si>
-  <si>
-    <t>REKENING</t>
+    <t>IKUTI BERItL TERKINI DAN TERCEPAT DI OKEZONE</t>
   </si>
 </sst>
 </file>
@@ -801,7 +552,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -846,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -860,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -871,10 +622,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -885,10 +636,10 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -899,10 +650,10 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D7">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -927,10 +678,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="D9">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -941,10 +692,10 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="D10">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -955,10 +706,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="D11">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -969,10 +720,10 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="D12">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -983,10 +734,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>127</v>
+        <v>71</v>
       </c>
       <c r="D13">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -997,10 +748,10 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c r="D14">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1011,10 +762,10 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="D15">
-        <v>182</v>
+        <v>120</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1025,10 +776,10 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="D16">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1039,10 +790,10 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1053,10 +804,10 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>233</v>
+        <v>135</v>
       </c>
       <c r="D18">
-        <v>234</v>
+        <v>156</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1067,10 +818,10 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1081,10 +832,10 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>236</v>
+        <v>160</v>
       </c>
       <c r="D20">
-        <v>254</v>
+        <v>180</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1095,10 +846,10 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>247</v>
+        <v>172</v>
       </c>
       <c r="D21">
-        <v>264</v>
+        <v>193</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1109,10 +860,10 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>259</v>
+        <v>184</v>
       </c>
       <c r="D22">
-        <v>278</v>
+        <v>205</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1123,10 +874,10 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>270</v>
+        <v>198</v>
       </c>
       <c r="D23">
-        <v>288</v>
+        <v>213</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1137,10 +888,10 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>281</v>
+        <v>205</v>
       </c>
       <c r="D24">
-        <v>298</v>
+        <v>223</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1151,10 +902,10 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>290</v>
+        <v>215</v>
       </c>
       <c r="D25">
-        <v>308</v>
+        <v>234</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1165,10 +916,10 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>299</v>
+        <v>227</v>
       </c>
       <c r="D26">
-        <v>314</v>
+        <v>247</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1179,10 +930,10 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>306</v>
+        <v>240</v>
       </c>
       <c r="D27">
-        <v>322</v>
+        <v>260</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1193,10 +944,10 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>314</v>
+        <v>252</v>
       </c>
       <c r="D28">
-        <v>334</v>
+        <v>273</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1207,10 +958,10 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>325</v>
+        <v>265</v>
       </c>
       <c r="D29">
-        <v>338</v>
+        <v>287</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1221,12 +972,3288 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>302</v>
+      </c>
+      <c r="D31">
+        <v>319</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>313</v>
+      </c>
+      <c r="D32">
+        <v>333</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>325</v>
+      </c>
+      <c r="D33">
+        <v>343</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>336</v>
+      </c>
+      <c r="D34">
+        <v>353</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>344</v>
+      </c>
+      <c r="D35">
+        <v>362</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>354</v>
+      </c>
+      <c r="D36">
+        <v>369</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>360</v>
+      </c>
+      <c r="D37">
+        <v>377</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>369</v>
+      </c>
+      <c r="D38">
+        <v>389</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>380</v>
+      </c>
+      <c r="D39">
+        <v>400</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>393</v>
+      </c>
+      <c r="D40">
+        <v>413</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>406</v>
+      </c>
+      <c r="D41">
+        <v>426</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>418</v>
+      </c>
+      <c r="D42">
+        <v>436</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="C43">
+        <v>428</v>
+      </c>
+      <c r="D43">
+        <v>449</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>442</v>
+      </c>
+      <c r="D44">
+        <v>459</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="C45">
+        <v>451</v>
+      </c>
+      <c r="D45">
+        <v>466</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="C46">
+        <v>458</v>
+      </c>
+      <c r="D46">
+        <v>481</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>474</v>
+      </c>
+      <c r="D47">
+        <v>489</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="C48">
+        <v>482</v>
+      </c>
+      <c r="D48">
+        <v>507</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="C49">
+        <v>499</v>
+      </c>
+      <c r="D49">
+        <v>517</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="C50">
+        <v>510</v>
+      </c>
+      <c r="D50">
+        <v>531</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="C51">
+        <v>522</v>
+      </c>
+      <c r="D51">
+        <v>543</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <v>535</v>
+      </c>
+      <c r="D52">
+        <v>554</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="C53">
+        <v>547</v>
+      </c>
+      <c r="D53">
+        <v>567</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="C54">
+        <v>559</v>
+      </c>
+      <c r="D54">
+        <v>580</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="C55">
+        <v>572</v>
+      </c>
+      <c r="D55">
+        <v>592</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="C56">
+        <v>585</v>
+      </c>
+      <c r="D56">
+        <v>601</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="C57">
+        <v>592</v>
+      </c>
+      <c r="D57">
+        <v>610</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="C58">
+        <v>602</v>
+      </c>
+      <c r="D58">
+        <v>621</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="C59">
+        <v>614</v>
+      </c>
+      <c r="D59">
+        <v>635</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="C60">
+        <v>627</v>
+      </c>
+      <c r="D60">
+        <v>647</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="C61">
+        <v>639</v>
+      </c>
+      <c r="D61">
+        <v>660</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="C62">
+        <v>652</v>
+      </c>
+      <c r="D62">
+        <v>674</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="C63">
+        <v>666</v>
+      </c>
+      <c r="D63">
+        <v>678</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="C65">
+        <v>1016</v>
+      </c>
+      <c r="D65">
+        <v>1022</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="C66">
+        <v>1016</v>
+      </c>
+      <c r="D66">
+        <v>1034</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="C67">
+        <v>1027</v>
+      </c>
+      <c r="D67">
+        <v>1047</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="C68">
+        <v>1039</v>
+      </c>
+      <c r="D68">
+        <v>1061</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="C69">
+        <v>1053</v>
+      </c>
+      <c r="D69">
+        <v>1084</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="C70">
+        <v>1076</v>
+      </c>
+      <c r="D70">
+        <v>1094</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="C71">
+        <v>1088</v>
+      </c>
+      <c r="D71">
+        <v>1108</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="C72">
+        <v>1100</v>
+      </c>
+      <c r="D72">
+        <v>1118</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="C73">
+        <v>1111</v>
+      </c>
+      <c r="D73">
+        <v>1127</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="C74">
+        <v>1119</v>
+      </c>
+      <c r="D74">
+        <v>1137</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="C75">
+        <v>1129</v>
+      </c>
+      <c r="D75">
+        <v>1143</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="C76">
+        <v>1135</v>
+      </c>
+      <c r="D76">
+        <v>1152</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="C77">
+        <v>1144</v>
+      </c>
+      <c r="D77">
+        <v>1163</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="C78">
+        <v>1155</v>
+      </c>
+      <c r="D78">
+        <v>1175</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="C79">
+        <v>1167</v>
+      </c>
+      <c r="D79">
+        <v>1188</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="C80">
+        <v>1180</v>
+      </c>
+      <c r="D80">
+        <v>1201</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="C81">
+        <v>1193</v>
+      </c>
+      <c r="D81">
+        <v>1210</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="C82">
+        <v>1203</v>
+      </c>
+      <c r="D82">
+        <v>1224</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="C83">
+        <v>1216</v>
+      </c>
+      <c r="D83">
+        <v>1234</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="C84">
+        <v>1226</v>
+      </c>
+      <c r="D84">
+        <v>1241</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="C85">
+        <v>1233</v>
+      </c>
+      <c r="D85">
+        <v>1256</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="C86">
+        <v>1249</v>
+      </c>
+      <c r="D86">
+        <v>1264</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="C87">
+        <v>1256</v>
+      </c>
+      <c r="D87">
+        <v>1282</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="C88">
+        <v>1274</v>
+      </c>
+      <c r="D88">
+        <v>1292</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="C89">
+        <v>1285</v>
+      </c>
+      <c r="D89">
+        <v>1305</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="C90">
+        <v>1297</v>
+      </c>
+      <c r="D90">
+        <v>1318</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="C91">
+        <v>1310</v>
+      </c>
+      <c r="D91">
+        <v>1329</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="C92">
+        <v>1322</v>
+      </c>
+      <c r="D92">
+        <v>1342</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="C93">
+        <v>1334</v>
+      </c>
+      <c r="D93">
+        <v>1355</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="C94">
+        <v>1346</v>
+      </c>
+      <c r="D94">
+        <v>1366</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="C95">
+        <v>1359</v>
+      </c>
+      <c r="D95">
+        <v>1375</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="C96">
+        <v>1367</v>
+      </c>
+      <c r="D96">
+        <v>1385</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="C97">
+        <v>1377</v>
+      </c>
+      <c r="D97">
+        <v>1396</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="C98">
+        <v>1389</v>
+      </c>
+      <c r="D98">
+        <v>1409</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="C99">
+        <v>1402</v>
+      </c>
+      <c r="D99">
+        <v>1422</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="C100">
+        <v>1414</v>
+      </c>
+      <c r="D100">
+        <v>1435</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="C101">
+        <v>1427</v>
+      </c>
+      <c r="D101">
+        <v>1449</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="C102">
+        <v>1440</v>
+      </c>
+      <c r="D102">
+        <v>1471</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="C103">
+        <v>1464</v>
+      </c>
+      <c r="D103">
+        <v>1481</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="C104">
+        <v>1475</v>
+      </c>
+      <c r="D104">
+        <v>1495</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="C105">
+        <v>1487</v>
+      </c>
+      <c r="D105">
+        <v>1505</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="C106">
+        <v>1498</v>
+      </c>
+      <c r="D106">
+        <v>1515</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="C107">
+        <v>1506</v>
+      </c>
+      <c r="D107">
+        <v>1524</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="C108">
+        <v>1516</v>
+      </c>
+      <c r="D108">
+        <v>1531</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="C109">
+        <v>1522</v>
+      </c>
+      <c r="D109">
+        <v>1532</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="C110">
+        <v>1531</v>
+      </c>
+      <c r="D110">
+        <v>1532</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="C112">
+        <v>1837</v>
+      </c>
+      <c r="D112">
+        <v>1837</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="C113">
+        <v>1837</v>
+      </c>
+      <c r="D113">
+        <v>1838</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="C115">
+        <v>1840</v>
+      </c>
+      <c r="D115">
+        <v>1859</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="C116">
+        <v>1851</v>
+      </c>
+      <c r="D116">
+        <v>1868</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="C117">
+        <v>1863</v>
+      </c>
+      <c r="D117">
+        <v>1883</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="C118">
+        <v>1875</v>
+      </c>
+      <c r="D118">
+        <v>1892</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="C119">
+        <v>1886</v>
+      </c>
+      <c r="D119">
+        <v>1902</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="C120">
+        <v>1894</v>
+      </c>
+      <c r="D120">
+        <v>1912</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="C121">
+        <v>1903</v>
+      </c>
+      <c r="D121">
+        <v>1918</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="C122">
+        <v>1910</v>
+      </c>
+      <c r="D122">
+        <v>1926</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="C123">
+        <v>1918</v>
+      </c>
+      <c r="D123">
+        <v>1938</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="C124">
+        <v>1930</v>
+      </c>
+      <c r="D124">
+        <v>1949</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="C125">
+        <v>1942</v>
+      </c>
+      <c r="D125">
+        <v>1962</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="C126">
+        <v>1955</v>
+      </c>
+      <c r="D126">
+        <v>1975</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="C127">
+        <v>1967</v>
+      </c>
+      <c r="D127">
+        <v>1985</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="C128">
+        <v>1977</v>
+      </c>
+      <c r="D128">
+        <v>1998</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="C129">
+        <v>1991</v>
+      </c>
+      <c r="D129">
+        <v>2009</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="C130">
+        <v>2000</v>
+      </c>
+      <c r="D130">
+        <v>2015</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="C131">
+        <v>2007</v>
+      </c>
+      <c r="D131">
+        <v>2030</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="C132">
+        <v>2023</v>
+      </c>
+      <c r="D132">
+        <v>2039</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="C133">
+        <v>2031</v>
+      </c>
+      <c r="D133">
+        <v>2056</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="C134">
+        <v>2048</v>
+      </c>
+      <c r="D134">
+        <v>2066</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="C135">
+        <v>2059</v>
+      </c>
+      <c r="D135">
+        <v>2080</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="C136">
+        <v>2072</v>
+      </c>
+      <c r="D136">
+        <v>2093</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="C137">
+        <v>2085</v>
+      </c>
+      <c r="D137">
+        <v>2104</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="C138">
+        <v>2097</v>
+      </c>
+      <c r="D138">
+        <v>2116</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="C139">
+        <v>2108</v>
+      </c>
+      <c r="D139">
+        <v>2129</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="C140">
+        <v>2121</v>
+      </c>
+      <c r="D140">
+        <v>2141</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="C141">
+        <v>2134</v>
+      </c>
+      <c r="D141">
+        <v>2150</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="C142">
+        <v>2141</v>
+      </c>
+      <c r="D142">
+        <v>2159</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="C143">
+        <v>2151</v>
+      </c>
+      <c r="D143">
+        <v>2171</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="C144">
+        <v>2163</v>
+      </c>
+      <c r="D144">
+        <v>2184</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="C145">
+        <v>2176</v>
+      </c>
+      <c r="D145">
+        <v>2196</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="C146">
+        <v>2189</v>
+      </c>
+      <c r="D146">
+        <v>2209</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="C147">
+        <v>2201</v>
+      </c>
+      <c r="D147">
+        <v>2223</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="C148">
+        <v>2215</v>
+      </c>
+      <c r="D148">
+        <v>2246</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="C149">
+        <v>2238</v>
+      </c>
+      <c r="D149">
+        <v>2256</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="C150">
+        <v>2250</v>
+      </c>
+      <c r="D150">
+        <v>2270</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="C151">
+        <v>2262</v>
+      </c>
+      <c r="D151">
+        <v>2280</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="C152">
+        <v>2273</v>
+      </c>
+      <c r="D152">
+        <v>2289</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="C153">
+        <v>2281</v>
+      </c>
+      <c r="D153">
+        <v>2299</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="C154">
+        <v>2291</v>
+      </c>
+      <c r="D154">
+        <v>2305</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="C155">
+        <v>2297</v>
+      </c>
+      <c r="D155">
+        <v>2313</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="C156">
+        <v>2306</v>
+      </c>
+      <c r="D156">
+        <v>2325</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="C157">
+        <v>2317</v>
+      </c>
+      <c r="D157">
+        <v>2337</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="C158">
+        <v>2329</v>
+      </c>
+      <c r="D158">
+        <v>2350</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="C159">
+        <v>2342</v>
+      </c>
+      <c r="D159">
+        <v>2363</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="C160">
+        <v>2355</v>
+      </c>
+      <c r="D160">
+        <v>2372</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="C161">
+        <v>2365</v>
+      </c>
+      <c r="D161">
+        <v>2386</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="C162">
+        <v>2378</v>
+      </c>
+      <c r="D162">
+        <v>2396</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="C163">
+        <v>2388</v>
+      </c>
+      <c r="D163">
+        <v>2403</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="C164">
+        <v>2395</v>
+      </c>
+      <c r="D164">
+        <v>2418</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="C165">
+        <v>2411</v>
+      </c>
+      <c r="D165">
+        <v>2426</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="C166">
+        <v>2418</v>
+      </c>
+      <c r="D166">
+        <v>2443</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="C167">
+        <v>2436</v>
+      </c>
+      <c r="D167">
+        <v>2453</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="C168">
+        <v>2447</v>
+      </c>
+      <c r="D168">
+        <v>2467</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="C169">
+        <v>2459</v>
+      </c>
+      <c r="D169">
+        <v>2480</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="C170">
+        <v>2472</v>
+      </c>
+      <c r="D170">
+        <v>2491</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="C171">
+        <v>2484</v>
+      </c>
+      <c r="D171">
+        <v>2504</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="C172">
+        <v>2496</v>
+      </c>
+      <c r="D172">
+        <v>2516</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="C173">
+        <v>2508</v>
+      </c>
+      <c r="D173">
+        <v>2528</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="C174">
+        <v>2521</v>
+      </c>
+      <c r="D174">
+        <v>2547</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="C175">
+        <v>2528</v>
+      </c>
+      <c r="D175">
+        <v>2558</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="C176">
+        <v>2539</v>
+      </c>
+      <c r="D176">
+        <v>2571</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="C177">
+        <v>2551</v>
+      </c>
+      <c r="D177">
+        <v>2584</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="C178">
+        <v>2564</v>
+      </c>
+      <c r="D178">
+        <v>2585</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="C179">
+        <v>2576</v>
+      </c>
+      <c r="D179">
+        <v>2585</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="C181">
+        <v>2884</v>
+      </c>
+      <c r="D181">
+        <v>2891</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="C182">
+        <v>2884</v>
+      </c>
+      <c r="D182">
+        <v>2904</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="C183">
+        <v>2896</v>
+      </c>
+      <c r="D183">
+        <v>2916</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="C184">
+        <v>2909</v>
+      </c>
+      <c r="D184">
+        <v>2925</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="C185">
+        <v>2916</v>
+      </c>
+      <c r="D185">
+        <v>2934</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="C186">
+        <v>2926</v>
+      </c>
+      <c r="D186">
+        <v>2945</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="C187">
+        <v>2938</v>
+      </c>
+      <c r="D187">
+        <v>2958</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="C188">
+        <v>2951</v>
+      </c>
+      <c r="D188">
+        <v>2971</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="C189">
+        <v>2963</v>
+      </c>
+      <c r="D189">
+        <v>2984</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="1">
+        <v>188</v>
+      </c>
+      <c r="C190">
+        <v>2976</v>
+      </c>
+      <c r="D190">
+        <v>2998</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="1">
+        <v>189</v>
+      </c>
+      <c r="C191">
+        <v>2990</v>
+      </c>
+      <c r="D191">
+        <v>3020</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="1">
+        <v>190</v>
+      </c>
+      <c r="C192">
+        <v>3013</v>
+      </c>
+      <c r="D192">
+        <v>3030</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="1">
+        <v>191</v>
+      </c>
+      <c r="C193">
+        <v>3025</v>
+      </c>
+      <c r="D193">
+        <v>3045</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="C194">
+        <v>3036</v>
+      </c>
+      <c r="D194">
+        <v>3054</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="C195">
+        <v>3047</v>
+      </c>
+      <c r="D195">
+        <v>3064</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="C196">
+        <v>3056</v>
+      </c>
+      <c r="D196">
+        <v>3074</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="C197">
+        <v>3065</v>
+      </c>
+      <c r="D197">
+        <v>3080</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="C198">
+        <v>3072</v>
+      </c>
+      <c r="D198">
+        <v>3088</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="C199">
+        <v>3080</v>
+      </c>
+      <c r="D199">
+        <v>3091</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="C201">
+        <v>3302</v>
+      </c>
+      <c r="D201">
+        <v>3303</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="C202">
+        <v>3302</v>
+      </c>
+      <c r="D202">
+        <v>3312</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="C203">
+        <v>3303</v>
+      </c>
+      <c r="D203">
+        <v>3321</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="C204">
+        <v>3313</v>
+      </c>
+      <c r="D204">
+        <v>3332</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="C205">
+        <v>3325</v>
+      </c>
+      <c r="D205">
+        <v>3346</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="C206">
+        <v>3338</v>
+      </c>
+      <c r="D206">
+        <v>3358</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="C207">
+        <v>3350</v>
+      </c>
+      <c r="D207">
+        <v>3371</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="C208">
+        <v>3363</v>
+      </c>
+      <c r="D208">
+        <v>3385</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="C209">
+        <v>3377</v>
+      </c>
+      <c r="D209">
+        <v>3408</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="C210">
+        <v>3400</v>
+      </c>
+      <c r="D210">
+        <v>3417</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="C211">
+        <v>3412</v>
+      </c>
+      <c r="D211">
+        <v>3432</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="C212">
+        <v>3424</v>
+      </c>
+      <c r="D212">
+        <v>3442</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="C213">
+        <v>3435</v>
+      </c>
+      <c r="D213">
+        <v>3451</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="C214">
+        <v>3443</v>
+      </c>
+      <c r="D214">
+        <v>3461</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="C215">
+        <v>3453</v>
+      </c>
+      <c r="D215">
+        <v>3467</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="C216">
+        <v>3459</v>
+      </c>
+      <c r="D216">
+        <v>3475</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="C217">
+        <v>3467</v>
+      </c>
+      <c r="D217">
+        <v>3487</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="C218">
+        <v>3479</v>
+      </c>
+      <c r="D218">
+        <v>3498</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="C219">
+        <v>3491</v>
+      </c>
+      <c r="D219">
+        <v>3511</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="C220">
+        <v>3504</v>
+      </c>
+      <c r="D220">
+        <v>3525</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="C221">
+        <v>3517</v>
+      </c>
+      <c r="D221">
+        <v>3534</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="C222">
+        <v>3526</v>
+      </c>
+      <c r="D222">
+        <v>3547</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="C223">
+        <v>3540</v>
+      </c>
+      <c r="D223">
+        <v>3558</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="C224">
+        <v>3550</v>
+      </c>
+      <c r="D224">
+        <v>3564</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="C225">
+        <v>3557</v>
+      </c>
+      <c r="D225">
+        <v>3580</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="C226">
+        <v>3573</v>
+      </c>
+      <c r="D226">
+        <v>3588</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="C227">
+        <v>3580</v>
+      </c>
+      <c r="D227">
+        <v>3605</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="C228">
+        <v>3598</v>
+      </c>
+      <c r="D228">
+        <v>3615</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="C229">
+        <v>3609</v>
+      </c>
+      <c r="D229">
+        <v>3629</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="C230">
+        <v>3621</v>
+      </c>
+      <c r="D230">
+        <v>3642</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="C231">
+        <v>3634</v>
+      </c>
+      <c r="D231">
+        <v>3653</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="C232">
+        <v>3646</v>
+      </c>
+      <c r="D232">
+        <v>3665</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="C233">
+        <v>3657</v>
+      </c>
+      <c r="D233">
+        <v>3678</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="C234">
+        <v>3670</v>
+      </c>
+      <c r="D234">
+        <v>3690</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="C235">
+        <v>3683</v>
+      </c>
+      <c r="D235">
+        <v>3699</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="C236">
+        <v>3690</v>
+      </c>
+      <c r="D236">
+        <v>3708</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="C237">
+        <v>3701</v>
+      </c>
+      <c r="D237">
+        <v>3720</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="C238">
+        <v>3713</v>
+      </c>
+      <c r="D238">
+        <v>3733</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="C239">
+        <v>3725</v>
+      </c>
+      <c r="D239">
+        <v>3745</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="C240">
+        <v>3738</v>
+      </c>
+      <c r="D240">
+        <v>3759</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="C241">
+        <v>3750</v>
+      </c>
+      <c r="D241">
+        <v>3772</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="C242">
+        <v>3764</v>
+      </c>
+      <c r="D242">
+        <v>3795</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="C243">
+        <v>3788</v>
+      </c>
+      <c r="D243">
+        <v>3805</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="C244">
+        <v>3799</v>
+      </c>
+      <c r="D244">
+        <v>3819</v>
+      </c>
+      <c r="E244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="C245">
+        <v>3811</v>
+      </c>
+      <c r="D245">
+        <v>3829</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="C246">
+        <v>3822</v>
+      </c>
+      <c r="D246">
+        <v>3838</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="C247">
+        <v>3830</v>
+      </c>
+      <c r="D247">
+        <v>3848</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="1">
+        <v>246</v>
+      </c>
+      <c r="C248">
+        <v>3840</v>
+      </c>
+      <c r="D248">
+        <v>3855</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="1">
+        <v>247</v>
+      </c>
+      <c r="C249">
+        <v>3846</v>
+      </c>
+      <c r="D249">
+        <v>3863</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="1">
+        <v>248</v>
+      </c>
+      <c r="C250">
+        <v>3855</v>
+      </c>
+      <c r="D250">
+        <v>3874</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="1">
+        <v>249</v>
+      </c>
+      <c r="C251">
+        <v>3866</v>
+      </c>
+      <c r="D251">
+        <v>3886</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="C252">
+        <v>3878</v>
+      </c>
+      <c r="D252">
+        <v>3899</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="C253">
+        <v>3891</v>
+      </c>
+      <c r="D253">
+        <v>3905</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="C254">
+        <v>3904</v>
+      </c>
+      <c r="D254">
+        <v>3905</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="C256">
+        <v>4213</v>
+      </c>
+      <c r="D256">
+        <v>4216</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="1">
+        <v>255</v>
+      </c>
+      <c r="C257">
+        <v>4213</v>
+      </c>
+      <c r="D257">
+        <v>4226</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="1">
+        <v>256</v>
+      </c>
+      <c r="C258">
+        <v>4213</v>
+      </c>
+      <c r="D258">
+        <v>4229</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="1">
+        <v>257</v>
+      </c>
+      <c r="C259">
+        <v>4218</v>
+      </c>
+      <c r="D259">
+        <v>4229</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="1">
+        <v>258</v>
+      </c>
+      <c r="C260">
+        <v>4227</v>
+      </c>
+      <c r="D260">
+        <v>4229</v>
+      </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="1">
+        <v>259</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="1">
+        <v>260</v>
+      </c>
+      <c r="C262">
+        <v>4329</v>
+      </c>
+      <c r="D262">
+        <v>4331</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="1">
+        <v>261</v>
+      </c>
+      <c r="C263">
+        <v>4329</v>
+      </c>
+      <c r="D263">
+        <v>4331</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="1">
+        <v>262</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+      <c r="E264">
         <v>0</v>
       </c>
     </row>
@@ -1237,7 +4264,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B269"/>
+  <dimension ref="A1:B228"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1253,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1261,7 +4288,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1269,7 +4296,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1277,7 +4304,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1285,7 +4312,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1293,7 +4320,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1301,7 +4328,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1469,7 +4496,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1477,7 +4504,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1485,7 +4512,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1501,7 +4528,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1509,7 +4536,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1517,7 +4544,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1525,7 +4552,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1533,7 +4560,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1541,7 +4568,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1549,7 +4576,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1557,7 +4584,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1565,7 +4592,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1573,7 +4600,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1581,7 +4608,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1589,7 +4616,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1597,7 +4624,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1605,7 +4632,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1613,7 +4640,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1621,7 +4648,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1629,7 +4656,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1637,7 +4664,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1645,7 +4672,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1653,7 +4680,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1661,7 +4688,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1669,7 +4696,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1677,7 +4704,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1685,7 +4712,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1693,7 +4720,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1701,7 +4728,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1709,7 +4736,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1717,7 +4744,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1725,7 +4752,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1733,7 +4760,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1741,7 +4768,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1749,7 +4776,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1757,7 +4784,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1765,7 +4792,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1773,7 +4800,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1781,7 +4808,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1789,7 +4816,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1797,7 +4824,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1805,7 +4832,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1813,7 +4840,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1821,7 +4848,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1829,7 +4856,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1837,7 +4864,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1845,7 +4872,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1853,7 +4880,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1861,7 +4888,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1869,7 +4896,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1877,7 +4904,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1885,7 +4912,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1893,7 +4920,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1901,7 +4928,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1909,7 +4936,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1917,7 +4944,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1925,7 +4952,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1933,7 +4960,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1941,7 +4968,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1949,7 +4976,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1957,7 +4984,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1965,7 +4992,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1973,7 +5000,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1981,7 +5008,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1989,7 +5016,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1997,7 +5024,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -2005,7 +5032,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -2013,7 +5040,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -2021,7 +5048,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2029,7 +5056,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2037,7 +5064,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2045,7 +5072,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2053,7 +5080,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -2061,7 +5088,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -2069,7 +5096,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -2077,7 +5104,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2085,7 +5112,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2093,7 +5120,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2101,7 +5128,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2109,7 +5136,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2117,7 +5144,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2125,7 +5152,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2133,7 +5160,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2141,7 +5168,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2149,7 +5176,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2157,7 +5184,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2165,7 +5192,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2173,7 +5200,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2181,7 +5208,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2189,7 +5216,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2197,7 +5224,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2205,7 +5232,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2213,7 +5240,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2221,7 +5248,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2229,7 +5256,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>64</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2237,7 +5264,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2245,7 +5272,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>66</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2253,7 +5280,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2261,7 +5288,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2269,7 +5296,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2277,7 +5304,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2285,7 +5312,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2293,7 +5320,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2301,7 +5328,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2309,7 +5336,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2317,7 +5344,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2325,7 +5352,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2333,7 +5360,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2341,7 +5368,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2349,7 +5376,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2357,7 +5384,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2365,7 +5392,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2373,7 +5400,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2381,7 +5408,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2389,7 +5416,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2397,7 +5424,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2405,7 +5432,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2413,7 +5440,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>87</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2421,7 +5448,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2429,7 +5456,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2437,7 +5464,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2445,7 +5472,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2453,7 +5480,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2461,7 +5488,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>92</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2469,7 +5496,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2477,7 +5504,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2485,7 +5512,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2493,7 +5520,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2501,7 +5528,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2509,7 +5536,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2517,7 +5544,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2525,7 +5552,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2533,7 +5560,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2541,7 +5568,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2549,7 +5576,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2557,7 +5584,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2565,7 +5592,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2573,7 +5600,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2581,7 +5608,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2589,7 +5616,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2597,7 +5624,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2605,7 +5632,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2613,7 +5640,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2621,7 +5648,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2629,7 +5656,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2637,7 +5664,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2645,7 +5672,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2653,7 +5680,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2661,7 +5688,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2669,7 +5696,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2677,7 +5704,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2685,7 +5712,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2693,7 +5720,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2701,7 +5728,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2709,7 +5736,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2717,7 +5744,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>68</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2725,7 +5752,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2733,7 +5760,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2741,7 +5768,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2749,7 +5776,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2757,7 +5784,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2765,7 +5792,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2773,7 +5800,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2781,7 +5808,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2789,7 +5816,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2797,7 +5824,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2805,7 +5832,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2813,7 +5840,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2821,7 +5848,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2829,7 +5856,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2837,7 +5864,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2845,7 +5872,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2853,7 +5880,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2861,7 +5888,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2869,7 +5896,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2877,7 +5904,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2885,7 +5912,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2893,7 +5920,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2901,7 +5928,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2909,7 +5936,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2917,7 +5944,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2925,7 +5952,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2933,7 +5960,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2941,7 +5968,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2949,7 +5976,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2957,7 +5984,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2965,7 +5992,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2973,7 +6000,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2981,7 +6008,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2989,7 +6016,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2997,7 +6024,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3005,7 +6032,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>104</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3013,7 +6040,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3021,7 +6048,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3029,7 +6056,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3037,7 +6064,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3045,7 +6072,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>108</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3053,7 +6080,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3061,335 +6088,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229" s="1">
-        <v>227</v>
-      </c>
-      <c r="B229" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230" s="1">
-        <v>228</v>
-      </c>
-      <c r="B230" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231" s="1">
-        <v>229</v>
-      </c>
-      <c r="B231" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232" s="1">
-        <v>230</v>
-      </c>
-      <c r="B232" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233" s="1">
-        <v>231</v>
-      </c>
-      <c r="B233" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
-      <c r="A234" s="1">
-        <v>232</v>
-      </c>
-      <c r="B234" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235" s="1">
-        <v>233</v>
-      </c>
-      <c r="B235" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
-      <c r="A236" s="1">
-        <v>234</v>
-      </c>
-      <c r="B236" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237" s="1">
-        <v>235</v>
-      </c>
-      <c r="B237" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238" s="1">
-        <v>236</v>
-      </c>
-      <c r="B238" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239" s="1">
-        <v>237</v>
-      </c>
-      <c r="B239" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
-      <c r="A240" s="1">
-        <v>238</v>
-      </c>
-      <c r="B240" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
-      <c r="A241" s="1">
-        <v>239</v>
-      </c>
-      <c r="B241" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
-      <c r="A242" s="1">
-        <v>240</v>
-      </c>
-      <c r="B242" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
-      <c r="A243" s="1">
-        <v>241</v>
-      </c>
-      <c r="B243" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
-      <c r="A244" s="1">
-        <v>242</v>
-      </c>
-      <c r="B244" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
-      <c r="A245" s="1">
-        <v>243</v>
-      </c>
-      <c r="B245" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
-      <c r="A246" s="1">
-        <v>244</v>
-      </c>
-      <c r="B246" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
-      <c r="A247" s="1">
-        <v>245</v>
-      </c>
-      <c r="B247" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2">
-      <c r="A248" s="1">
-        <v>246</v>
-      </c>
-      <c r="B248" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
-      <c r="A249" s="1">
-        <v>247</v>
-      </c>
-      <c r="B249" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
-      <c r="A250" s="1">
-        <v>248</v>
-      </c>
-      <c r="B250" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
-      <c r="A251" s="1">
-        <v>249</v>
-      </c>
-      <c r="B251" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
-      <c r="A252" s="1">
-        <v>250</v>
-      </c>
-      <c r="B252" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
-      <c r="A253" s="1">
-        <v>251</v>
-      </c>
-      <c r="B253" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
-      <c r="A254" s="1">
-        <v>252</v>
-      </c>
-      <c r="B254" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
-      <c r="A255" s="1">
-        <v>253</v>
-      </c>
-      <c r="B255" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
-      <c r="A256" s="1">
-        <v>254</v>
-      </c>
-      <c r="B256" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
-      <c r="A257" s="1">
-        <v>255</v>
-      </c>
-      <c r="B257" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
-      <c r="A258" s="1">
-        <v>256</v>
-      </c>
-      <c r="B258" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259" s="1">
-        <v>257</v>
-      </c>
-      <c r="B259" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
-      <c r="A260" s="1">
-        <v>258</v>
-      </c>
-      <c r="B260" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
-      <c r="A261" s="1">
-        <v>259</v>
-      </c>
-      <c r="B261" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262" s="1">
-        <v>260</v>
-      </c>
-      <c r="B262" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
-      <c r="A263" s="1">
-        <v>261</v>
-      </c>
-      <c r="B263" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
-      <c r="A264" s="1">
-        <v>262</v>
-      </c>
-      <c r="B264" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
-      <c r="A265" s="1">
-        <v>263</v>
-      </c>
-      <c r="B265" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
-      <c r="A266" s="1">
-        <v>264</v>
-      </c>
-      <c r="B266" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
-      <c r="A267" s="1">
-        <v>265</v>
-      </c>
-      <c r="B267" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2">
-      <c r="A268" s="1">
-        <v>266</v>
-      </c>
-      <c r="B268" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2">
-      <c r="A269" s="1">
-        <v>267</v>
-      </c>
-      <c r="B269" t="s">
-        <v>142</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/debug.xlsx
+++ b/debug.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="62">
   <si>
     <t>#*</t>
   </si>
@@ -23,184 +23,184 @@
     <t>#</t>
   </si>
   <si>
-    <t>TIFIKASI Rp28 MILIAR</t>
-  </si>
-  <si>
-    <t>ANDHI PRAMONO SEMBUNYIKAN DANA GRATIFIKASI DENGAN MENGGUNAKAN REKENING MERTUA</t>
-  </si>
-  <si>
-    <t>DUA KUBAH LAVA AKTIF DI PUNCAK MERAPI SERING BERGUGURAN, SUHU CAPAI 500 DERAJAT CELCIUS</t>
+    <t>ING</t>
+  </si>
+  <si>
+    <t>TOREHKAN KINERJA TERBAIK, PLN INDONESIA POWER CATATKAN LABA BERSIH SEBESAR 439 JUTA USD</t>
+  </si>
+  <si>
+    <t>PERSEKUTUAN DOA MNC CENTER MENYALURKAN BANTUAN PENYEDIAAN ALKITAB KE DAERAH-DAERAH TERPENCIL MELALUI LEMBAGA ALKITAB INDONESIA</t>
+  </si>
+  <si>
+    <t>DUKUNG ESG, PERTAMINA INTERNATIONAL SHIPPING TANAM 1000 POHON MANGROVE DI MAKASSAR</t>
+  </si>
+  <si>
+    <t>PRESIDEN JOKOWI BUKA PAPUA STREET CARNIVAL, KOLABORASI KEMENPAREKRAF DAN PYCH BINAAN BIN</t>
+  </si>
+  <si>
+    <t>PRESIDEN BANGGA PRODUKSI JAGUNG DI FOOD ESTATE KEEROM HINGGA 7 TONIHA</t>
+  </si>
+  <si>
+    <t>GUBERNUR</t>
+  </si>
+  <si>
+    <t>KAN PERTUKARAN TAWANAN PERANG SEJUMLAH 45 PERSONEL DARI MASING-MASING</t>
+  </si>
+  <si>
+    <t>ANG SEJUMLAH 45 PERSONEL DARI MASING-MASING PIHAK</t>
+  </si>
+  <si>
+    <t>BMKG: WASPADA POTENSI GELOMBANG TINGGI HINGGA 6 METER DI PERAIRAN SELATAN JAWA-SUMBA</t>
+  </si>
+  <si>
+    <t>IKUTI BERITA-BERITA EKSKLUSIF iNEWS, SUBSCRIBE CHANNEL YOUTUBE @OfficialiNews</t>
+  </si>
+  <si>
+    <t>TEBING 50 METER DI PIKET NOL LONGSOR, AKSES LUMAJANG-MALANG PUTUS TOTAL</t>
+  </si>
+  <si>
+    <t>DBD MEWABAH DI CIMAHI, 123 WARGA TERJANGKIT , 2 ANAK MENINGGAL</t>
+  </si>
+  <si>
+    <t>SURVEI LSN: ELEKTABILITAS PARTAI PERINDO TEMBUS 5,1 PERSEN, UNGGULI BEBERAPA PARPOL PARLEMEN</t>
+  </si>
+  <si>
+    <t>BMKG: HUJAN RINGAN BAKAL TURUN SIANG HARI DI SEBAGIAN BESAR JAKARTA, JUMAT</t>
+  </si>
+  <si>
+    <t>BUNUH HARIMAU, WARGA ACEH TIMUR DITUNTUT 2,5 TAHUN PENJARA DAN DENDA Rpıoo JUTA</t>
+  </si>
+  <si>
+    <t>INDRA SJAFRI TANGANI TIMNAS INDONESIA U-20 UNTUK ASIAN GAMES</t>
+  </si>
+  <si>
+    <t>BACA BERITA CEPAT DAN LENGKAP DI INEWS.ID</t>
+  </si>
+  <si>
+    <t>KASUS JUAL BELI JABATAN, KPK TAHAN SEKRETARIS DPRD PEMALANG SODIK ISMANTO</t>
+  </si>
+  <si>
+    <t>SELAIN PENISTAAN AGAMA, BARESKRIM USUT DUGAAN UJARAN KEBENCIAN SARA PANJI GUMILANG</t>
+  </si>
+  <si>
+    <t>KASUS PONPES AL ZAYTUN, BARESKRIM BELUM USUT 256 REKENING PANJI GUMILANG</t>
+  </si>
+  <si>
+    <t>IKUTI BERITA TERKINI DENGAN PEMBAHASAN MENDALAM DI SINDONEWS.COM</t>
+  </si>
+  <si>
+    <t>PPATK BLOKIR 256 REKENING PANJI GUMILANG YANG DIDUGA TERKAIT TPPU</t>
   </si>
   <si>
     <t>LRT JABODEBEK UJI COBA 12 JULI 2023, KAI PASTIKAN KEAMANAN PENUMPANG MESKI TANPA MASINIS</t>
   </si>
   <si>
-    <t>IKUTI BERITA TERKINI DENGAN PEMBAHASAN MENDALAM DI</t>
-  </si>
-  <si>
-    <t>MBAHASAN MENDALAM DI SINDONEWS.COM</t>
-  </si>
-  <si>
-    <t>SURVEI LSN: ELEKTABILITAS PARTAI PERINDO TEMBUS 5,1 PERSEN, UNGGULI BEBERAPA PARPOL PARLEMEN</t>
-  </si>
-  <si>
-    <t>DIAM-DIAM POLANDIA KIRIM 12 HELIKOPTER SERANG MIL MI-24 KE UKRAINA</t>
+    <t>INDONESIA AKAN IMPOR KRL BARU DARI JEPANG, MASUK BERTAHAP HINGGA 2027</t>
+  </si>
+  <si>
+    <t>IKUTI BERITA TERKINI DAN TERCEPAT DI OKEZONECoM</t>
+  </si>
+  <si>
+    <t>CAK NUN SUDAH SADARKAN DIRI DAN BISA BERKOMUNIKASI SETELAH SEMPAT DIRAWAT DI ICU RS DR SARDJITO AKIBAT ALAMI PENDARAHAN OTAK</t>
+  </si>
+  <si>
+    <t>WAPRES: 149 JUTA BALITA DUNIA MENGALAMI STUNTING</t>
+  </si>
+  <si>
+    <t>GUBERNUR JATENG GANJAR PRANOWO RAIH SATYA LENCANA WIRA KARYA DARI PRESIDEN JOKOWI DI PUNCAK PERINGATAN HARI KELUARGA NASIONAL</t>
+  </si>
+  <si>
+    <t>IRAK KIRIMKAN SURAT PERINTAH PENANGKAPAN SALWAN MOMIKA KE INTERPOL, BUNTUT PEMBAKARAN AL QURAN DI SWEDIA</t>
+  </si>
+  <si>
+    <t>PEJUANG PALESTINA TEMBAK MATI TENTARA ISRAEL DI TEPI BARAT</t>
+  </si>
+  <si>
+    <t>RUSIA USIR 9 DIPLOMAT FINLANDIA, TUTUP KANTOR KONSULAT</t>
+  </si>
+  <si>
+    <t>RUSIA DAN UKRAINA MENGUMUMKAN PERTUKARAN TAWANAN PERANG SEJUMLAH 45 PERSONEL DARI MASING-MASING PIHAK</t>
+  </si>
+  <si>
+    <t>DBD MEWABAH DI CIMAHI, 123 WARGA TERJANGKIT, 2 ANAK MENINGGAL</t>
+  </si>
+  <si>
+    <t>IKUTI BERITA TERKINI DENGAN PEMBAHASAN MENDALAM DI SINDONEWS COM</t>
+  </si>
+  <si>
+    <t>INDONESIA AKAN IMPOR KRL BARU DARI JEPANG MASUK BERTAHAP HINGGA 2027</t>
+  </si>
+  <si>
+    <t>IKUTI BERITA TERKINI DAN TERCEPAT DI OKEZONE COM</t>
+  </si>
+  <si>
+    <t>INDONESIA AKAN IMPOR KRL BARU DARI</t>
+  </si>
+  <si>
+    <t>INFO LeBIH LANJUT KUNJUNGI WWWAXEPROMOCod</t>
+  </si>
+  <si>
+    <t>membeli</t>
+  </si>
+  <si>
+    <t>yara</t>
+  </si>
+  <si>
+    <t>Ketentuan</t>
+  </si>
+  <si>
+    <t>A BERKOMUNIKASI SETELAH SEMPAT DIRAWAT DI ICU RS DR SARDJITO AKIBAT ALAMI PENDARAHAN OTAK</t>
+  </si>
+  <si>
+    <t>IRAK KIRIMKAN SURAT PERINTAH PENANGKAPAN SALWAN MOMIKA KE INTERPOL BUNTUT PEMBAKARAN AL QURAN DI SWEDIA</t>
+  </si>
+  <si>
+    <t>SURVEI LSN: ELEKTABILITAS PARTAI PERINDO TEMBUS 5,1 PERSEN, UNGGULI BEBERAPA PARPOL</t>
+  </si>
+  <si>
+    <t>'EH TIMUR DITUNTUT 2,5 TAHUN PENJARA DAN DENDA Rpıoo JUTA</t>
   </si>
   <si>
     <t>IKUTI BERITA TERKINI DAN TERCEPAT DI OKEZONECOM</t>
   </si>
   <si>
-    <t>PM BELANDA MARK RUTTE MENGUNDURKAN DIRI PASCA KOALISI PARTAINYA GAGAL SEPAKAT TENTANG PEMBATASAN IMIGRAN</t>
-  </si>
-  <si>
-    <t>AKHIR PEKAN, RAGUNAN DIKUNJUNGI 55 RIBU WISATAWAN</t>
-  </si>
-  <si>
-    <t>DEKLARASI DUKUNG GANJAR PRANOWO SEBAGAI BACAPRES, PULUHAN RIBU EMAK-EMAK JAWA TIMUR TITIPKAN 9 MANDAT UNTUK GANJAR</t>
-  </si>
-  <si>
-    <t>IKUTI BERITA-BERITA EKSKLUSIF iNEWS, SUBSCRIBE CHANNEL YOUTUBE @OfficialiNews</t>
-  </si>
-  <si>
-    <t>BMKG: JAKBAR, JAKSEL, DAN JAKTIM BERPOTENSI DIGUYUR HUJAN DISERTAI PETIR MINGGU SORE</t>
-  </si>
-  <si>
-    <t>PENGANTIN HILANG PULANG KE RUMAH DI BOGOR BAWA MANTAN KEKASIH LANGSUNG DICERAI SUAMI</t>
-  </si>
-  <si>
-    <t>PRESIDEN JOKO WIDODO JENGUK CAK NUN YANG DIRAWAT DI RSUP DR SARDJITO YOGYAKARTA</t>
-  </si>
-  <si>
-    <t>KORBAN LONGSOR TERAKHIR DI KARANGASEM BALI DITEMUKAN, TOTAL DUA ORANG TEWAS</t>
-  </si>
-  <si>
-    <t>SATU NELAYAN CIDAUN CIANJUR YANG HILANG DITEMUKAN MENINGGAL, SATU LAINNYA MASIH DICARI</t>
-  </si>
-  <si>
-    <t>PEREDARAN DOLAR PALSU SENILAI RP33 TRILIUN TERBONGKAR DI SUKABUMI, 2 PENGEDAR DITANGKAP</t>
-  </si>
-  <si>
-    <t>PT LIB AKAN TINDAK TEGAS PELAKU RASISME DI LIGA 1</t>
-  </si>
-  <si>
-    <t>RICUH LAGA PSM MAKASSAR VS DEWA UNITED, SUPORTER DAN POLISI TERLUKA</t>
-  </si>
-  <si>
-    <t>KKHI MAKKAH PULANGKAN 1 JEMAAH HAJI LANSIA KE TANAH AIR LEWAT MEKANISME TANAZUL</t>
-  </si>
-  <si>
-    <t>JEMAAH HAJI ASAL MAJALENGKA HILANG MISTERIUS DI ARAFAH, KELUARGA MINTA BANTUAN JOKOWI</t>
-  </si>
-  <si>
-    <t>BMKG PRAKIRAKAN ANGIN 30 KNOT LANDA LAUT BALI, WARGA HINGGA NELAYAN HARUS WASPADA</t>
-  </si>
-  <si>
-    <t>POLDA METRO JAYA GELAR OPERASI PATUH JAYA MULAI BESOK, SASAR PENGENDARA LAWAN ARUS</t>
-  </si>
-  <si>
-    <t>JABATAN RIDWAN KAMIL BERAKHIR SEPTEMBER, DPRD UMUMKAN CALON PJ GUBERNUR JABAR BULAN DEPAN</t>
-  </si>
-  <si>
-    <t>PRAJURIT TNI AD DARI SATGAS YONIF 143/TWEJ POS OKBIBAB BANTU PROSES PEMAKAMAN WARGA DI PEGUNUNGAN BINTANG, PAPUA SEBAGAI BENTUK BELASUNGKAWA TERHADAP WARGA</t>
-  </si>
-  <si>
-    <t>KEMENTERIAN PUPR SIAPKAN JEMBATAN BAILEY UNTUK PENGHUBUNG LUMAJANG-MALANG</t>
-  </si>
-  <si>
-    <t>PEMKAB LUMAJANG TETAPKAN STATUS TANGGAP DARURAT BENCANA BANJIR DAN LONGSOR</t>
-  </si>
-  <si>
-    <t>JEMBATAN PERMANEN BAKAL DIBANGUN USAI AKSES MALANG LUMAJANG TERPUTUS</t>
-  </si>
-  <si>
-    <t>13 WNI TERDUGA KORBAN TPPO DI MYANMAR TIBA DI INDONESIA</t>
-  </si>
-  <si>
-    <t>KEJAGUNG GELEDAH TIGA KANTOR DI MEDAN TERKAIT KASUS EKSPOR CPO</t>
-  </si>
-  <si>
-    <t>BACA BERITA CEPAT DAN LENGKAP DI INEWS.ID</t>
-  </si>
-  <si>
-    <t>KPK CECAR ISTRI ANDHI PRAMONO SOAL SUMBER UANG SUAMINYA</t>
-  </si>
-  <si>
-    <t>KPK YAKIN PETINGGI BEA CUKAI TAHU ANDHI PRAMONO TERIMA GRATIFIKASI Rp28 MILIAR</t>
-  </si>
-  <si>
-    <t>DUA KUBAH LAVA AKTIF DI PUNCAK MERAPI SERING BERGUGURAN SUHU CAPAI 500 DERAJAT CELCIUS</t>
-  </si>
-  <si>
-    <t>IKUTI BERITA TERKINI DENGAN PEMBAHASAN MENDALAM DI SINDONEWS.COM</t>
-  </si>
-  <si>
-    <t>IKUTI BERITA TERKINI DAN TERCEPAT DI OKEZONE COM</t>
-  </si>
-  <si>
-    <t>KKHI MAKKAH PULANGKAN JEMAAH HAJI LANSIA KE TANAH AIR LEWAT MEKANISME TANAZUL</t>
-  </si>
-  <si>
-    <t>PRAJURIT TNI AD DARI SATGAS YONIF 143/TWEJ POS OKBIBAB BANTU PROSES PEMAKAMAN</t>
-  </si>
-  <si>
-    <t>ING MISTERIUS DI ARAFAH KELUARGA MINTA BANTUAN JOKOWI</t>
-  </si>
-  <si>
-    <t>KPK</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>PRAJURIT TNI AD DARI SATGAS YONIF 143/TWEJ POS OKBIBAB BANTU PROSES</t>
-  </si>
-  <si>
-    <t>ARI SATGAS YONIF 143/TWEJ POS OKBIBAB BANTU PROSES PEMAKAMAN WARGA DI PEGUNUNGAN BINTANG, PAPUA SEBAGAI BENTUK BELASUNGKAWA TERHADAP WARGA</t>
-  </si>
-  <si>
-    <t>PEREDARAN DOLAR PALSU SENILAI RP33 TRILIUN TERBONGKAR DI SUKABUMI 2 PENGEDAR DITANGKAP</t>
-  </si>
-  <si>
-    <t>DUA KUBAH LAVA AKTIF DI PUNCAK MERAPI SERING BERGUGURAN , SUHU CAPAI 500 DERAJAT CELCIUS</t>
-  </si>
-  <si>
-    <t>SURVEI LSN: ELEKTABILITAS PARTAI PERINDO TEMBUS 5,1 PERSEN UNGGULI BEBERAPA PARPOL PARLEMEN</t>
-  </si>
-  <si>
-    <t>DEKLARASI DUKUNG GANJAR PRANOWO SEBAGAI BACAPRES PULUHAN RIBU EMAK-EMAK JAWA TIMUR TITIPKAN 9 MANDAT UNTUK GANJAR</t>
-  </si>
-  <si>
-    <t>POLDA METRO JAYA GELAR OPERASI PATUH JAYA MULAI BESOK,</t>
-  </si>
-  <si>
-    <t>AKHIR DI KARANGASEM BALI DITEMUKAN, TOTAL DUA ORANG TEWAS</t>
-  </si>
-  <si>
-    <t>KPK YAKIN PETINGGI BEA CUKAI TAHU ANDHI PRAMONO TERIMA GRATIFIKASI Rp28</t>
-  </si>
-  <si>
-    <t>MI, 2 PENGEDAR DITANGKAP</t>
-  </si>
-  <si>
-    <t>JEMAAH HAJI LANSIA KE TANAH AIR LEWAT MEKANISME TANAZUL</t>
-  </si>
-  <si>
-    <t>JABATAN RIDWAN KAMIL BERAKHIR SEPTEMBER; DPRD UMUMKAN CALON PJ GUBERNUR JABAR BULAN DEPAN</t>
-  </si>
-  <si>
-    <t>PT LIB AKAN TINDAK TEGAS PELAKU RASISME DI LIGA</t>
-  </si>
-  <si>
-    <t>JN USAI AKSES MALANG LUMAJANG TERPUTUS</t>
-  </si>
-  <si>
-    <t>BACA</t>
-  </si>
-  <si>
-    <t>OPTER SERANG WIL Ma-24 KE UKRAINA</t>
-  </si>
-  <si>
-    <t>IKUTI BERItL TERKINI DAN TERCEPAT DI OKEZONE</t>
+    <t>IKUTI BERITA</t>
+  </si>
+  <si>
+    <t>tangan</t>
+  </si>
+  <si>
+    <t>jarak</t>
+  </si>
+  <si>
+    <t>kerumunan</t>
+  </si>
+  <si>
+    <t>PRESIDEN JOKOWI BUKA PAPUA STREET CARNIVAL, KOLABORASI KEMENPAREKRAF DAN PYCH BINAAN</t>
+  </si>
+  <si>
+    <t>AN BIN</t>
+  </si>
+  <si>
+    <t>BUNUH HARIMAU WARGA ACEH TIMUR DITUNTUT 2,5 TAHUN PENJARA DAN DENDA Rpıoo JUTA</t>
+  </si>
+  <si>
+    <t>KASUS JUAL BELI JABATAN KPK TAHAN SEKRETARIS DPRD PEMALANG SODIK ISMANTO</t>
+  </si>
+  <si>
+    <t>CAK NUN</t>
+  </si>
+  <si>
+    <t>DARKAN DIRI DAN BISA BERKOMUNIKASI SETELAH SEMPAT DIRAWAT DI ICU RS DR SARDJITO AKIBAT ALAMI PENDARAHAN OTAK</t>
+  </si>
+  <si>
+    <t>TOREHKAN KINERJA TERBAIK, PLN INDONESIA POWER CATATKAN LABA BERSIH SEBESAR 439 JUTA</t>
+  </si>
+  <si>
+    <t>ODUKSI JAGUNG DI FOOD ESTATE KEEROM HINGGA 7 TONIHA</t>
+  </si>
+  <si>
+    <t>IRAK KIRIMKAN SURAT PERINTAH PENANGKAPAN SALWAN MOMIKA KE</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E264"/>
+  <dimension ref="A1:E239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,10 +600,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -614,10 +614,10 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -628,10 +628,10 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -656,10 +656,10 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D7">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -684,10 +684,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="D9">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -698,10 +698,10 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>54</v>
+        <v>131</v>
       </c>
       <c r="D11">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -726,10 +726,10 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="D13">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -754,10 +754,10 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="D14">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -768,10 +768,10 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="D15">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -782,10 +782,10 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="D16">
-        <v>130</v>
+        <v>175</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -796,10 +796,10 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="D17">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -810,10 +810,10 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="D18">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="D19">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -838,10 +838,10 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="D20">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -852,10 +852,10 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="D21">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -866,10 +866,10 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="D22">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="D23">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -894,10 +894,10 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="D24">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="D25">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -922,10 +922,10 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="D26">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -936,10 +936,10 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="D27">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="D28">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -964,10 +964,10 @@
         <v>27</v>
       </c>
       <c r="C29">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="D29">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -978,10 +978,10 @@
         <v>28</v>
       </c>
       <c r="C30">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="D30">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>29</v>
       </c>
       <c r="C31">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="D31">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="D32">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>31</v>
       </c>
       <c r="C33">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="D33">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="D34">
-        <v>353</v>
+        <v>377</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1048,10 +1048,10 @@
         <v>33</v>
       </c>
       <c r="C35">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="D35">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>354</v>
+        <v>383</v>
       </c>
       <c r="D36">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1076,10 +1076,10 @@
         <v>35</v>
       </c>
       <c r="C37">
-        <v>360</v>
+        <v>396</v>
       </c>
       <c r="D37">
-        <v>377</v>
+        <v>415</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1090,10 +1090,10 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="D38">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>37</v>
       </c>
       <c r="C39">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="D39">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1118,10 +1118,10 @@
         <v>38</v>
       </c>
       <c r="C40">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="D40">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         <v>39</v>
       </c>
       <c r="C41">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="D41">
-        <v>426</v>
+        <v>465</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1146,10 +1146,10 @@
         <v>40</v>
       </c>
       <c r="C42">
-        <v>418</v>
+        <v>458</v>
       </c>
       <c r="D42">
-        <v>436</v>
+        <v>481</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1160,10 +1160,10 @@
         <v>41</v>
       </c>
       <c r="C43">
-        <v>428</v>
+        <v>474</v>
       </c>
       <c r="D43">
-        <v>449</v>
+        <v>493</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1174,10 +1174,10 @@
         <v>42</v>
       </c>
       <c r="C44">
-        <v>442</v>
+        <v>486</v>
       </c>
       <c r="D44">
-        <v>459</v>
+        <v>504</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1188,10 +1188,10 @@
         <v>43</v>
       </c>
       <c r="C45">
-        <v>451</v>
+        <v>498</v>
       </c>
       <c r="D45">
-        <v>466</v>
+        <v>516</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1202,10 +1202,10 @@
         <v>44</v>
       </c>
       <c r="C46">
-        <v>458</v>
+        <v>508</v>
       </c>
       <c r="D46">
-        <v>481</v>
+        <v>525</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1216,10 +1216,10 @@
         <v>45</v>
       </c>
       <c r="C47">
-        <v>474</v>
+        <v>517</v>
       </c>
       <c r="D47">
-        <v>489</v>
+        <v>538</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1230,10 +1230,10 @@
         <v>46</v>
       </c>
       <c r="C48">
-        <v>482</v>
+        <v>531</v>
       </c>
       <c r="D48">
-        <v>507</v>
+        <v>550</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>47</v>
       </c>
       <c r="C49">
-        <v>499</v>
+        <v>542</v>
       </c>
       <c r="D49">
-        <v>517</v>
+        <v>562</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1258,10 +1258,10 @@
         <v>48</v>
       </c>
       <c r="C50">
-        <v>510</v>
+        <v>554</v>
       </c>
       <c r="D50">
-        <v>531</v>
+        <v>571</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>49</v>
       </c>
       <c r="C51">
-        <v>522</v>
+        <v>563</v>
       </c>
       <c r="D51">
-        <v>543</v>
+        <v>577</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1286,10 +1286,10 @@
         <v>50</v>
       </c>
       <c r="C52">
-        <v>535</v>
+        <v>569</v>
       </c>
       <c r="D52">
-        <v>554</v>
+        <v>588</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>51</v>
       </c>
       <c r="C53">
-        <v>547</v>
+        <v>580</v>
       </c>
       <c r="D53">
-        <v>567</v>
+        <v>600</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1314,10 +1314,10 @@
         <v>52</v>
       </c>
       <c r="C54">
-        <v>559</v>
+        <v>592</v>
       </c>
       <c r="D54">
-        <v>580</v>
+        <v>611</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1328,10 +1328,10 @@
         <v>53</v>
       </c>
       <c r="C55">
-        <v>572</v>
+        <v>603</v>
       </c>
       <c r="D55">
-        <v>592</v>
+        <v>621</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>54</v>
       </c>
       <c r="C56">
-        <v>585</v>
+        <v>613</v>
       </c>
       <c r="D56">
-        <v>601</v>
+        <v>631</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>55</v>
       </c>
       <c r="C57">
-        <v>592</v>
+        <v>623</v>
       </c>
       <c r="D57">
-        <v>610</v>
+        <v>644</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -1370,10 +1370,10 @@
         <v>56</v>
       </c>
       <c r="C58">
-        <v>602</v>
+        <v>636</v>
       </c>
       <c r="D58">
-        <v>621</v>
+        <v>654</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1384,10 +1384,10 @@
         <v>57</v>
       </c>
       <c r="C59">
-        <v>614</v>
+        <v>646</v>
       </c>
       <c r="D59">
-        <v>635</v>
+        <v>661</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1398,10 +1398,10 @@
         <v>58</v>
       </c>
       <c r="C60">
-        <v>627</v>
+        <v>653</v>
       </c>
       <c r="D60">
-        <v>647</v>
+        <v>679</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -1412,10 +1412,10 @@
         <v>59</v>
       </c>
       <c r="C61">
-        <v>639</v>
+        <v>671</v>
       </c>
       <c r="D61">
-        <v>660</v>
+        <v>686</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -1426,10 +1426,10 @@
         <v>60</v>
       </c>
       <c r="C62">
-        <v>652</v>
+        <v>679</v>
       </c>
       <c r="D62">
-        <v>674</v>
+        <v>700</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1440,10 +1440,10 @@
         <v>61</v>
       </c>
       <c r="C63">
-        <v>666</v>
+        <v>692</v>
       </c>
       <c r="D63">
-        <v>678</v>
+        <v>718</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1454,10 +1454,10 @@
         <v>62</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>711</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>732</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1468,10 +1468,10 @@
         <v>63</v>
       </c>
       <c r="C65">
-        <v>1016</v>
+        <v>724</v>
       </c>
       <c r="D65">
-        <v>1022</v>
+        <v>745</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>64</v>
       </c>
       <c r="C66">
-        <v>1016</v>
+        <v>737</v>
       </c>
       <c r="D66">
-        <v>1034</v>
+        <v>756</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>65</v>
       </c>
       <c r="C67">
-        <v>1027</v>
+        <v>747</v>
       </c>
       <c r="D67">
-        <v>1047</v>
+        <v>774</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -1510,10 +1510,10 @@
         <v>66</v>
       </c>
       <c r="C68">
-        <v>1039</v>
+        <v>766</v>
       </c>
       <c r="D68">
-        <v>1061</v>
+        <v>791</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -1524,10 +1524,10 @@
         <v>67</v>
       </c>
       <c r="C69">
-        <v>1053</v>
+        <v>782</v>
       </c>
       <c r="D69">
-        <v>1084</v>
+        <v>799</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>68</v>
       </c>
       <c r="C70">
-        <v>1076</v>
+        <v>791</v>
       </c>
       <c r="D70">
-        <v>1094</v>
+        <v>806</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1552,10 +1552,10 @@
         <v>69</v>
       </c>
       <c r="C71">
-        <v>1088</v>
+        <v>799</v>
       </c>
       <c r="D71">
-        <v>1108</v>
+        <v>822</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1566,10 +1566,10 @@
         <v>70</v>
       </c>
       <c r="C72">
-        <v>1100</v>
+        <v>815</v>
       </c>
       <c r="D72">
-        <v>1118</v>
+        <v>834</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -1580,10 +1580,10 @@
         <v>71</v>
       </c>
       <c r="C73">
-        <v>1111</v>
+        <v>827</v>
       </c>
       <c r="D73">
-        <v>1127</v>
+        <v>845</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1594,10 +1594,10 @@
         <v>72</v>
       </c>
       <c r="C74">
-        <v>1119</v>
+        <v>838</v>
       </c>
       <c r="D74">
-        <v>1137</v>
+        <v>857</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1608,10 +1608,10 @@
         <v>73</v>
       </c>
       <c r="C75">
-        <v>1129</v>
+        <v>849</v>
       </c>
       <c r="D75">
-        <v>1143</v>
+        <v>866</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>74</v>
       </c>
       <c r="C76">
-        <v>1135</v>
+        <v>858</v>
       </c>
       <c r="D76">
-        <v>1152</v>
+        <v>879</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1636,10 +1636,10 @@
         <v>75</v>
       </c>
       <c r="C77">
-        <v>1144</v>
+        <v>872</v>
       </c>
       <c r="D77">
-        <v>1163</v>
+        <v>891</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1650,10 +1650,10 @@
         <v>76</v>
       </c>
       <c r="C78">
-        <v>1155</v>
+        <v>883</v>
       </c>
       <c r="D78">
-        <v>1175</v>
+        <v>903</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1664,10 +1664,10 @@
         <v>77</v>
       </c>
       <c r="C79">
-        <v>1167</v>
+        <v>895</v>
       </c>
       <c r="D79">
-        <v>1188</v>
+        <v>912</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1678,10 +1678,10 @@
         <v>78</v>
       </c>
       <c r="C80">
-        <v>1180</v>
+        <v>904</v>
       </c>
       <c r="D80">
-        <v>1201</v>
+        <v>918</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1692,10 +1692,10 @@
         <v>79</v>
       </c>
       <c r="C81">
-        <v>1193</v>
+        <v>910</v>
       </c>
       <c r="D81">
-        <v>1210</v>
+        <v>929</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1706,10 +1706,10 @@
         <v>80</v>
       </c>
       <c r="C82">
-        <v>1203</v>
+        <v>921</v>
       </c>
       <c r="D82">
-        <v>1224</v>
+        <v>941</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1720,10 +1720,10 @@
         <v>81</v>
       </c>
       <c r="C83">
-        <v>1216</v>
+        <v>933</v>
       </c>
       <c r="D83">
-        <v>1234</v>
+        <v>952</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -1734,10 +1734,10 @@
         <v>82</v>
       </c>
       <c r="C84">
-        <v>1226</v>
+        <v>944</v>
       </c>
       <c r="D84">
-        <v>1241</v>
+        <v>962</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -1748,10 +1748,10 @@
         <v>83</v>
       </c>
       <c r="C85">
-        <v>1233</v>
+        <v>954</v>
       </c>
       <c r="D85">
-        <v>1256</v>
+        <v>972</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         <v>84</v>
       </c>
       <c r="C86">
-        <v>1249</v>
+        <v>964</v>
       </c>
       <c r="D86">
-        <v>1264</v>
+        <v>983</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>85</v>
       </c>
       <c r="C87">
-        <v>1256</v>
+        <v>977</v>
       </c>
       <c r="D87">
-        <v>1282</v>
+        <v>983</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -1790,10 +1790,10 @@
         <v>86</v>
       </c>
       <c r="C88">
-        <v>1274</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>1292</v>
+        <v>0</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -1804,10 +1804,10 @@
         <v>87</v>
       </c>
       <c r="C89">
-        <v>1285</v>
+        <v>1014</v>
       </c>
       <c r="D89">
-        <v>1305</v>
+        <v>1044</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>88</v>
       </c>
       <c r="C90">
-        <v>1297</v>
+        <v>1014</v>
       </c>
       <c r="D90">
-        <v>1318</v>
+        <v>1044</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -1832,10 +1832,10 @@
         <v>89</v>
       </c>
       <c r="C91">
-        <v>1310</v>
+        <v>1025</v>
       </c>
       <c r="D91">
-        <v>1329</v>
+        <v>1044</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>90</v>
       </c>
       <c r="C92">
-        <v>1322</v>
+        <v>1039</v>
       </c>
       <c r="D92">
-        <v>1342</v>
+        <v>1044</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>91</v>
       </c>
       <c r="C93">
-        <v>1334</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>1355</v>
+        <v>0</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -1874,10 +1874,10 @@
         <v>92</v>
       </c>
       <c r="C94">
-        <v>1346</v>
+        <v>1312</v>
       </c>
       <c r="D94">
-        <v>1366</v>
+        <v>1312</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -1888,10 +1888,10 @@
         <v>93</v>
       </c>
       <c r="C95">
-        <v>1359</v>
+        <v>1312</v>
       </c>
       <c r="D95">
-        <v>1375</v>
+        <v>1314</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -1902,10 +1902,10 @@
         <v>94</v>
       </c>
       <c r="C96">
-        <v>1367</v>
+        <v>1312</v>
       </c>
       <c r="D96">
-        <v>1385</v>
+        <v>1314</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -1916,10 +1916,10 @@
         <v>95</v>
       </c>
       <c r="C97">
-        <v>1377</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>1396</v>
+        <v>0</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -1930,10 +1930,10 @@
         <v>96</v>
       </c>
       <c r="C98">
-        <v>1389</v>
+        <v>1350</v>
       </c>
       <c r="D98">
-        <v>1409</v>
+        <v>1361</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -1944,10 +1944,10 @@
         <v>97</v>
       </c>
       <c r="C99">
-        <v>1402</v>
+        <v>1353</v>
       </c>
       <c r="D99">
-        <v>1422</v>
+        <v>1368</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -1958,10 +1958,10 @@
         <v>98</v>
       </c>
       <c r="C100">
-        <v>1414</v>
+        <v>1361</v>
       </c>
       <c r="D100">
-        <v>1435</v>
+        <v>1382</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -1972,10 +1972,10 @@
         <v>99</v>
       </c>
       <c r="C101">
-        <v>1427</v>
+        <v>1374</v>
       </c>
       <c r="D101">
-        <v>1449</v>
+        <v>1400</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -1986,10 +1986,10 @@
         <v>100</v>
       </c>
       <c r="C102">
-        <v>1440</v>
+        <v>1393</v>
       </c>
       <c r="D102">
-        <v>1471</v>
+        <v>1414</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -2000,10 +2000,10 @@
         <v>101</v>
       </c>
       <c r="C103">
-        <v>1464</v>
+        <v>1405</v>
       </c>
       <c r="D103">
-        <v>1481</v>
+        <v>1427</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>102</v>
       </c>
       <c r="C104">
-        <v>1475</v>
+        <v>1419</v>
       </c>
       <c r="D104">
-        <v>1495</v>
+        <v>1438</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -2028,10 +2028,10 @@
         <v>103</v>
       </c>
       <c r="C105">
-        <v>1487</v>
+        <v>1429</v>
       </c>
       <c r="D105">
-        <v>1505</v>
+        <v>1455</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -2042,10 +2042,10 @@
         <v>104</v>
       </c>
       <c r="C106">
-        <v>1498</v>
+        <v>1448</v>
       </c>
       <c r="D106">
-        <v>1515</v>
+        <v>1473</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>105</v>
       </c>
       <c r="C107">
-        <v>1506</v>
+        <v>1464</v>
       </c>
       <c r="D107">
-        <v>1524</v>
+        <v>1481</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -2070,10 +2070,10 @@
         <v>106</v>
       </c>
       <c r="C108">
-        <v>1516</v>
+        <v>1473</v>
       </c>
       <c r="D108">
-        <v>1531</v>
+        <v>1488</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -2084,10 +2084,10 @@
         <v>107</v>
       </c>
       <c r="C109">
-        <v>1522</v>
+        <v>1481</v>
       </c>
       <c r="D109">
-        <v>1532</v>
+        <v>1503</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>108</v>
       </c>
       <c r="C110">
-        <v>1531</v>
+        <v>1496</v>
       </c>
       <c r="D110">
-        <v>1532</v>
+        <v>1516</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -2112,10 +2112,10 @@
         <v>109</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>1509</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>1527</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -2126,10 +2126,10 @@
         <v>110</v>
       </c>
       <c r="C112">
-        <v>1837</v>
+        <v>1520</v>
       </c>
       <c r="D112">
-        <v>1837</v>
+        <v>1539</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -2140,10 +2140,10 @@
         <v>111</v>
       </c>
       <c r="C113">
-        <v>1837</v>
+        <v>1531</v>
       </c>
       <c r="D113">
-        <v>1838</v>
+        <v>1548</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -2154,10 +2154,10 @@
         <v>112</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>1540</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>1561</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -2168,10 +2168,10 @@
         <v>113</v>
       </c>
       <c r="C115">
-        <v>1840</v>
+        <v>1554</v>
       </c>
       <c r="D115">
-        <v>1859</v>
+        <v>1573</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>114</v>
       </c>
       <c r="C116">
-        <v>1851</v>
+        <v>1565</v>
       </c>
       <c r="D116">
-        <v>1868</v>
+        <v>1585</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -2196,10 +2196,10 @@
         <v>115</v>
       </c>
       <c r="C117">
-        <v>1863</v>
+        <v>1577</v>
       </c>
       <c r="D117">
-        <v>1883</v>
+        <v>1594</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -2210,10 +2210,10 @@
         <v>116</v>
       </c>
       <c r="C118">
-        <v>1875</v>
+        <v>1586</v>
       </c>
       <c r="D118">
-        <v>1892</v>
+        <v>1600</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>117</v>
       </c>
       <c r="C119">
-        <v>1886</v>
+        <v>1592</v>
       </c>
       <c r="D119">
-        <v>1902</v>
+        <v>1611</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -2238,10 +2238,10 @@
         <v>118</v>
       </c>
       <c r="C120">
-        <v>1894</v>
+        <v>1603</v>
       </c>
       <c r="D120">
-        <v>1912</v>
+        <v>1623</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -2252,10 +2252,10 @@
         <v>119</v>
       </c>
       <c r="C121">
-        <v>1903</v>
+        <v>1615</v>
       </c>
       <c r="D121">
-        <v>1918</v>
+        <v>1634</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -2266,10 +2266,10 @@
         <v>120</v>
       </c>
       <c r="C122">
-        <v>1910</v>
+        <v>1626</v>
       </c>
       <c r="D122">
-        <v>1926</v>
+        <v>1644</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -2280,10 +2280,10 @@
         <v>121</v>
       </c>
       <c r="C123">
-        <v>1918</v>
+        <v>1636</v>
       </c>
       <c r="D123">
-        <v>1938</v>
+        <v>1654</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -2294,10 +2294,10 @@
         <v>122</v>
       </c>
       <c r="C124">
-        <v>1930</v>
+        <v>1646</v>
       </c>
       <c r="D124">
-        <v>1949</v>
+        <v>1666</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -2308,10 +2308,10 @@
         <v>123</v>
       </c>
       <c r="C125">
-        <v>1942</v>
+        <v>1658</v>
       </c>
       <c r="D125">
-        <v>1962</v>
+        <v>1677</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -2322,10 +2322,10 @@
         <v>124</v>
       </c>
       <c r="C126">
-        <v>1955</v>
+        <v>1669</v>
       </c>
       <c r="D126">
-        <v>1975</v>
+        <v>1684</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -2336,10 +2336,10 @@
         <v>125</v>
       </c>
       <c r="C127">
-        <v>1967</v>
+        <v>1676</v>
       </c>
       <c r="D127">
-        <v>1985</v>
+        <v>1702</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -2350,10 +2350,10 @@
         <v>126</v>
       </c>
       <c r="C128">
-        <v>1977</v>
+        <v>1694</v>
       </c>
       <c r="D128">
-        <v>1998</v>
+        <v>1709</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -2364,10 +2364,10 @@
         <v>127</v>
       </c>
       <c r="C129">
-        <v>1991</v>
+        <v>1702</v>
       </c>
       <c r="D129">
-        <v>2009</v>
+        <v>1723</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -2378,10 +2378,10 @@
         <v>128</v>
       </c>
       <c r="C130">
-        <v>2000</v>
+        <v>1714</v>
       </c>
       <c r="D130">
-        <v>2015</v>
+        <v>1741</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -2392,10 +2392,10 @@
         <v>129</v>
       </c>
       <c r="C131">
-        <v>2007</v>
+        <v>1734</v>
       </c>
       <c r="D131">
-        <v>2030</v>
+        <v>1754</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -2406,10 +2406,10 @@
         <v>130</v>
       </c>
       <c r="C132">
-        <v>2023</v>
+        <v>1746</v>
       </c>
       <c r="D132">
-        <v>2039</v>
+        <v>1768</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -2420,10 +2420,10 @@
         <v>131</v>
       </c>
       <c r="C133">
-        <v>2031</v>
+        <v>1760</v>
       </c>
       <c r="D133">
-        <v>2056</v>
+        <v>1779</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -2434,10 +2434,10 @@
         <v>132</v>
       </c>
       <c r="C134">
-        <v>2048</v>
+        <v>1770</v>
       </c>
       <c r="D134">
-        <v>2066</v>
+        <v>1796</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -2448,10 +2448,10 @@
         <v>133</v>
       </c>
       <c r="C135">
-        <v>2059</v>
+        <v>1789</v>
       </c>
       <c r="D135">
-        <v>2080</v>
+        <v>1813</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -2462,10 +2462,10 @@
         <v>134</v>
       </c>
       <c r="C136">
-        <v>2072</v>
+        <v>1805</v>
       </c>
       <c r="D136">
-        <v>2093</v>
+        <v>1822</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -2476,10 +2476,10 @@
         <v>135</v>
       </c>
       <c r="C137">
-        <v>2085</v>
+        <v>1814</v>
       </c>
       <c r="D137">
-        <v>2104</v>
+        <v>1829</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>136</v>
       </c>
       <c r="C138">
-        <v>2097</v>
+        <v>1822</v>
       </c>
       <c r="D138">
-        <v>2116</v>
+        <v>1844</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -2504,10 +2504,10 @@
         <v>137</v>
       </c>
       <c r="C139">
-        <v>2108</v>
+        <v>1837</v>
       </c>
       <c r="D139">
-        <v>2129</v>
+        <v>1857</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -2518,10 +2518,10 @@
         <v>138</v>
       </c>
       <c r="C140">
-        <v>2121</v>
+        <v>1850</v>
       </c>
       <c r="D140">
-        <v>2141</v>
+        <v>1868</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>139</v>
       </c>
       <c r="C141">
-        <v>2134</v>
+        <v>1861</v>
       </c>
       <c r="D141">
-        <v>2150</v>
+        <v>1880</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -2546,10 +2546,10 @@
         <v>140</v>
       </c>
       <c r="C142">
-        <v>2141</v>
+        <v>1872</v>
       </c>
       <c r="D142">
-        <v>2159</v>
+        <v>1889</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -2560,10 +2560,10 @@
         <v>141</v>
       </c>
       <c r="C143">
-        <v>2151</v>
+        <v>1881</v>
       </c>
       <c r="D143">
-        <v>2171</v>
+        <v>1894</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>142</v>
       </c>
       <c r="C144">
-        <v>2163</v>
+        <v>0</v>
       </c>
       <c r="D144">
-        <v>2184</v>
+        <v>0</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -2588,10 +2588,10 @@
         <v>143</v>
       </c>
       <c r="C145">
-        <v>2176</v>
+        <v>2260</v>
       </c>
       <c r="D145">
-        <v>2196</v>
+        <v>2267</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>144</v>
       </c>
       <c r="C146">
-        <v>2189</v>
+        <v>2260</v>
       </c>
       <c r="D146">
-        <v>2209</v>
+        <v>2275</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -2616,10 +2616,10 @@
         <v>145</v>
       </c>
       <c r="C147">
-        <v>2201</v>
+        <v>2267</v>
       </c>
       <c r="D147">
-        <v>2223</v>
+        <v>2282</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -2630,10 +2630,10 @@
         <v>146</v>
       </c>
       <c r="C148">
-        <v>2215</v>
+        <v>2274</v>
       </c>
       <c r="D148">
-        <v>2246</v>
+        <v>2293</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -2644,10 +2644,10 @@
         <v>147</v>
       </c>
       <c r="C149">
-        <v>2238</v>
+        <v>2285</v>
       </c>
       <c r="D149">
-        <v>2256</v>
+        <v>2305</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -2658,10 +2658,10 @@
         <v>148</v>
       </c>
       <c r="C150">
-        <v>2250</v>
+        <v>2297</v>
       </c>
       <c r="D150">
-        <v>2270</v>
+        <v>2316</v>
       </c>
       <c r="E150">
         <v>0</v>
@@ -2672,10 +2672,10 @@
         <v>149</v>
       </c>
       <c r="C151">
-        <v>2262</v>
+        <v>2308</v>
       </c>
       <c r="D151">
-        <v>2280</v>
+        <v>2325</v>
       </c>
       <c r="E151">
         <v>0</v>
@@ -2686,10 +2686,10 @@
         <v>150</v>
       </c>
       <c r="C152">
-        <v>2273</v>
+        <v>2318</v>
       </c>
       <c r="D152">
-        <v>2289</v>
+        <v>2336</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -2700,10 +2700,10 @@
         <v>151</v>
       </c>
       <c r="C153">
-        <v>2281</v>
+        <v>2328</v>
       </c>
       <c r="D153">
-        <v>2299</v>
+        <v>2348</v>
       </c>
       <c r="E153">
         <v>0</v>
@@ -2714,10 +2714,10 @@
         <v>152</v>
       </c>
       <c r="C154">
-        <v>2291</v>
+        <v>2340</v>
       </c>
       <c r="D154">
-        <v>2305</v>
+        <v>2359</v>
       </c>
       <c r="E154">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>153</v>
       </c>
       <c r="C155">
-        <v>2297</v>
+        <v>2351</v>
       </c>
       <c r="D155">
-        <v>2313</v>
+        <v>2366</v>
       </c>
       <c r="E155">
         <v>0</v>
@@ -2742,10 +2742,10 @@
         <v>154</v>
       </c>
       <c r="C156">
-        <v>2306</v>
+        <v>2358</v>
       </c>
       <c r="D156">
-        <v>2325</v>
+        <v>2384</v>
       </c>
       <c r="E156">
         <v>0</v>
@@ -2756,10 +2756,10 @@
         <v>155</v>
       </c>
       <c r="C157">
-        <v>2317</v>
+        <v>2376</v>
       </c>
       <c r="D157">
-        <v>2337</v>
+        <v>2390</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -2770,10 +2770,10 @@
         <v>156</v>
       </c>
       <c r="C158">
-        <v>2329</v>
+        <v>2383</v>
       </c>
       <c r="D158">
-        <v>2350</v>
+        <v>2405</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -2784,10 +2784,10 @@
         <v>157</v>
       </c>
       <c r="C159">
-        <v>2342</v>
+        <v>2396</v>
       </c>
       <c r="D159">
-        <v>2363</v>
+        <v>2423</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -2798,10 +2798,10 @@
         <v>158</v>
       </c>
       <c r="C160">
-        <v>2355</v>
+        <v>2416</v>
       </c>
       <c r="D160">
-        <v>2372</v>
+        <v>2436</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -2812,10 +2812,10 @@
         <v>159</v>
       </c>
       <c r="C161">
-        <v>2365</v>
+        <v>2428</v>
       </c>
       <c r="D161">
-        <v>2386</v>
+        <v>2450</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -2826,10 +2826,10 @@
         <v>160</v>
       </c>
       <c r="C162">
-        <v>2378</v>
+        <v>2442</v>
       </c>
       <c r="D162">
-        <v>2396</v>
+        <v>2461</v>
       </c>
       <c r="E162">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>161</v>
       </c>
       <c r="C163">
-        <v>2388</v>
+        <v>2452</v>
       </c>
       <c r="D163">
-        <v>2403</v>
+        <v>2478</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -2854,10 +2854,10 @@
         <v>162</v>
       </c>
       <c r="C164">
-        <v>2395</v>
+        <v>2471</v>
       </c>
       <c r="D164">
-        <v>2418</v>
+        <v>2495</v>
       </c>
       <c r="E164">
         <v>0</v>
@@ -2868,10 +2868,10 @@
         <v>163</v>
       </c>
       <c r="C165">
-        <v>2411</v>
+        <v>2487</v>
       </c>
       <c r="D165">
-        <v>2426</v>
+        <v>2504</v>
       </c>
       <c r="E165">
         <v>0</v>
@@ -2882,10 +2882,10 @@
         <v>164</v>
       </c>
       <c r="C166">
-        <v>2418</v>
+        <v>2495</v>
       </c>
       <c r="D166">
-        <v>2443</v>
+        <v>2511</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -2896,10 +2896,10 @@
         <v>165</v>
       </c>
       <c r="C167">
-        <v>2436</v>
+        <v>2503</v>
       </c>
       <c r="D167">
-        <v>2453</v>
+        <v>2526</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -2910,10 +2910,10 @@
         <v>166</v>
       </c>
       <c r="C168">
-        <v>2447</v>
+        <v>2519</v>
       </c>
       <c r="D168">
-        <v>2467</v>
+        <v>2539</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -2924,10 +2924,10 @@
         <v>167</v>
       </c>
       <c r="C169">
-        <v>2459</v>
+        <v>2532</v>
       </c>
       <c r="D169">
-        <v>2480</v>
+        <v>2550</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -2938,10 +2938,10 @@
         <v>168</v>
       </c>
       <c r="C170">
-        <v>2472</v>
+        <v>2543</v>
       </c>
       <c r="D170">
-        <v>2491</v>
+        <v>2562</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -2952,10 +2952,10 @@
         <v>169</v>
       </c>
       <c r="C171">
-        <v>2484</v>
+        <v>2554</v>
       </c>
       <c r="D171">
-        <v>2504</v>
+        <v>2571</v>
       </c>
       <c r="E171">
         <v>0</v>
@@ -2966,10 +2966,10 @@
         <v>170</v>
       </c>
       <c r="C172">
-        <v>2496</v>
+        <v>2563</v>
       </c>
       <c r="D172">
-        <v>2516</v>
+        <v>2584</v>
       </c>
       <c r="E172">
         <v>0</v>
@@ -2980,10 +2980,10 @@
         <v>171</v>
       </c>
       <c r="C173">
-        <v>2508</v>
+        <v>2577</v>
       </c>
       <c r="D173">
-        <v>2528</v>
+        <v>2595</v>
       </c>
       <c r="E173">
         <v>0</v>
@@ -2994,10 +2994,10 @@
         <v>172</v>
       </c>
       <c r="C174">
-        <v>2521</v>
+        <v>2588</v>
       </c>
       <c r="D174">
-        <v>2547</v>
+        <v>2608</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -3008,10 +3008,10 @@
         <v>173</v>
       </c>
       <c r="C175">
-        <v>2528</v>
+        <v>2599</v>
       </c>
       <c r="D175">
-        <v>2558</v>
+        <v>2616</v>
       </c>
       <c r="E175">
         <v>0</v>
@@ -3022,10 +3022,10 @@
         <v>174</v>
       </c>
       <c r="C176">
-        <v>2539</v>
+        <v>2608</v>
       </c>
       <c r="D176">
-        <v>2571</v>
+        <v>2623</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -3036,10 +3036,10 @@
         <v>175</v>
       </c>
       <c r="C177">
-        <v>2551</v>
+        <v>2614</v>
       </c>
       <c r="D177">
-        <v>2584</v>
+        <v>2633</v>
       </c>
       <c r="E177">
         <v>0</v>
@@ -3050,10 +3050,10 @@
         <v>176</v>
       </c>
       <c r="C178">
-        <v>2564</v>
+        <v>2625</v>
       </c>
       <c r="D178">
-        <v>2585</v>
+        <v>2646</v>
       </c>
       <c r="E178">
         <v>0</v>
@@ -3064,10 +3064,10 @@
         <v>177</v>
       </c>
       <c r="C179">
-        <v>2576</v>
+        <v>2638</v>
       </c>
       <c r="D179">
-        <v>2585</v>
+        <v>2657</v>
       </c>
       <c r="E179">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>178</v>
       </c>
       <c r="C180">
-        <v>0</v>
+        <v>2649</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>2666</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -3092,10 +3092,10 @@
         <v>179</v>
       </c>
       <c r="C181">
-        <v>2884</v>
+        <v>2659</v>
       </c>
       <c r="D181">
-        <v>2891</v>
+        <v>2676</v>
       </c>
       <c r="E181">
         <v>0</v>
@@ -3106,10 +3106,10 @@
         <v>180</v>
       </c>
       <c r="C182">
-        <v>2884</v>
+        <v>2668</v>
       </c>
       <c r="D182">
-        <v>2904</v>
+        <v>2689</v>
       </c>
       <c r="E182">
         <v>0</v>
@@ -3120,10 +3120,10 @@
         <v>181</v>
       </c>
       <c r="C183">
-        <v>2896</v>
+        <v>2681</v>
       </c>
       <c r="D183">
-        <v>2916</v>
+        <v>2694</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -3134,10 +3134,10 @@
         <v>182</v>
       </c>
       <c r="C184">
-        <v>2909</v>
+        <v>2692</v>
       </c>
       <c r="D184">
-        <v>2925</v>
+        <v>2694</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -3148,10 +3148,10 @@
         <v>183</v>
       </c>
       <c r="C185">
-        <v>2916</v>
+        <v>0</v>
       </c>
       <c r="D185">
-        <v>2934</v>
+        <v>0</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -3162,10 +3162,10 @@
         <v>184</v>
       </c>
       <c r="C186">
-        <v>2926</v>
+        <v>3006</v>
       </c>
       <c r="D186">
-        <v>2945</v>
+        <v>3006</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -3176,10 +3176,10 @@
         <v>185</v>
       </c>
       <c r="C187">
-        <v>2938</v>
+        <v>3006</v>
       </c>
       <c r="D187">
-        <v>2958</v>
+        <v>3007</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -3190,10 +3190,10 @@
         <v>186</v>
       </c>
       <c r="C188">
-        <v>2951</v>
+        <v>3006</v>
       </c>
       <c r="D188">
-        <v>2971</v>
+        <v>3007</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>187</v>
       </c>
       <c r="C189">
-        <v>2963</v>
+        <v>3006</v>
       </c>
       <c r="D189">
-        <v>2984</v>
+        <v>3007</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -3218,10 +3218,10 @@
         <v>188</v>
       </c>
       <c r="C190">
-        <v>2976</v>
+        <v>0</v>
       </c>
       <c r="D190">
-        <v>2998</v>
+        <v>0</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>189</v>
       </c>
       <c r="C191">
-        <v>2990</v>
+        <v>3012</v>
       </c>
       <c r="D191">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>190</v>
       </c>
       <c r="C192">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="D192">
         <v>3030</v>
@@ -3260,10 +3260,10 @@
         <v>191</v>
       </c>
       <c r="C193">
-        <v>3025</v>
+        <v>3012</v>
       </c>
       <c r="D193">
-        <v>3045</v>
+        <v>3041</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -3274,10 +3274,10 @@
         <v>192</v>
       </c>
       <c r="C194">
-        <v>3036</v>
+        <v>3012</v>
       </c>
       <c r="D194">
-        <v>3054</v>
+        <v>3048</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -3288,10 +3288,10 @@
         <v>193</v>
       </c>
       <c r="C195">
-        <v>3047</v>
+        <v>3012</v>
       </c>
       <c r="D195">
-        <v>3064</v>
+        <v>3065</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -3302,10 +3302,10 @@
         <v>194</v>
       </c>
       <c r="C196">
-        <v>3056</v>
+        <v>3019</v>
       </c>
       <c r="D196">
-        <v>3074</v>
+        <v>3072</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>195</v>
       </c>
       <c r="C197">
-        <v>3065</v>
+        <v>3022</v>
       </c>
       <c r="D197">
-        <v>3080</v>
+        <v>3087</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -3330,10 +3330,10 @@
         <v>196</v>
       </c>
       <c r="C198">
-        <v>3072</v>
+        <v>3033</v>
       </c>
       <c r="D198">
-        <v>3088</v>
+        <v>3105</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -3344,10 +3344,10 @@
         <v>197</v>
       </c>
       <c r="C199">
-        <v>3080</v>
+        <v>3040</v>
       </c>
       <c r="D199">
-        <v>3091</v>
+        <v>3118</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -3358,10 +3358,10 @@
         <v>198</v>
       </c>
       <c r="C200">
-        <v>0</v>
+        <v>3058</v>
       </c>
       <c r="D200">
-        <v>0</v>
+        <v>3123</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -3372,10 +3372,10 @@
         <v>199</v>
       </c>
       <c r="C201">
-        <v>3302</v>
+        <v>3065</v>
       </c>
       <c r="D201">
-        <v>3303</v>
+        <v>3123</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -3386,10 +3386,10 @@
         <v>200</v>
       </c>
       <c r="C202">
-        <v>3302</v>
+        <v>3078</v>
       </c>
       <c r="D202">
-        <v>3312</v>
+        <v>3123</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -3400,10 +3400,10 @@
         <v>201</v>
       </c>
       <c r="C203">
-        <v>3303</v>
+        <v>3098</v>
       </c>
       <c r="D203">
-        <v>3321</v>
+        <v>3123</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -3414,10 +3414,10 @@
         <v>202</v>
       </c>
       <c r="C204">
-        <v>3313</v>
+        <v>3110</v>
       </c>
       <c r="D204">
-        <v>3332</v>
+        <v>3123</v>
       </c>
       <c r="E204">
         <v>0</v>
@@ -3428,10 +3428,10 @@
         <v>203</v>
       </c>
       <c r="C205">
-        <v>3325</v>
+        <v>0</v>
       </c>
       <c r="D205">
-        <v>3346</v>
+        <v>0</v>
       </c>
       <c r="E205">
         <v>0</v>
@@ -3442,10 +3442,10 @@
         <v>204</v>
       </c>
       <c r="C206">
-        <v>3338</v>
+        <v>3132</v>
       </c>
       <c r="D206">
-        <v>3358</v>
+        <v>3132</v>
       </c>
       <c r="E206">
         <v>0</v>
@@ -3456,10 +3456,10 @@
         <v>205</v>
       </c>
       <c r="C207">
-        <v>3350</v>
+        <v>3132</v>
       </c>
       <c r="D207">
-        <v>3371</v>
+        <v>3143</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -3470,10 +3470,10 @@
         <v>206</v>
       </c>
       <c r="C208">
-        <v>3363</v>
+        <v>3134</v>
       </c>
       <c r="D208">
-        <v>3385</v>
+        <v>3160</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -3484,10 +3484,10 @@
         <v>207</v>
       </c>
       <c r="C209">
-        <v>3377</v>
+        <v>3153</v>
       </c>
       <c r="D209">
-        <v>3408</v>
+        <v>3177</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -3498,10 +3498,10 @@
         <v>208</v>
       </c>
       <c r="C210">
-        <v>3400</v>
+        <v>3169</v>
       </c>
       <c r="D210">
-        <v>3417</v>
+        <v>3186</v>
       </c>
       <c r="E210">
         <v>0</v>
@@ -3512,10 +3512,10 @@
         <v>209</v>
       </c>
       <c r="C211">
-        <v>3412</v>
+        <v>3177</v>
       </c>
       <c r="D211">
-        <v>3432</v>
+        <v>3193</v>
       </c>
       <c r="E211">
         <v>0</v>
@@ -3526,10 +3526,10 @@
         <v>210</v>
       </c>
       <c r="C212">
-        <v>3424</v>
+        <v>3185</v>
       </c>
       <c r="D212">
-        <v>3442</v>
+        <v>3208</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -3540,10 +3540,10 @@
         <v>211</v>
       </c>
       <c r="C213">
-        <v>3435</v>
+        <v>3201</v>
       </c>
       <c r="D213">
-        <v>3451</v>
+        <v>3221</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -3554,10 +3554,10 @@
         <v>212</v>
       </c>
       <c r="C214">
-        <v>3443</v>
+        <v>3214</v>
       </c>
       <c r="D214">
-        <v>3461</v>
+        <v>3232</v>
       </c>
       <c r="E214">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>213</v>
       </c>
       <c r="C215">
-        <v>3453</v>
+        <v>3225</v>
       </c>
       <c r="D215">
-        <v>3467</v>
+        <v>3244</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -3582,10 +3582,10 @@
         <v>214</v>
       </c>
       <c r="C216">
-        <v>3459</v>
+        <v>3236</v>
       </c>
       <c r="D216">
-        <v>3475</v>
+        <v>3252</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -3596,10 +3596,10 @@
         <v>215</v>
       </c>
       <c r="C217">
-        <v>3467</v>
+        <v>3245</v>
       </c>
       <c r="D217">
-        <v>3487</v>
+        <v>3266</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -3610,10 +3610,10 @@
         <v>216</v>
       </c>
       <c r="C218">
-        <v>3479</v>
+        <v>3258</v>
       </c>
       <c r="D218">
-        <v>3498</v>
+        <v>3277</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -3624,10 +3624,10 @@
         <v>217</v>
       </c>
       <c r="C219">
-        <v>3491</v>
+        <v>3269</v>
       </c>
       <c r="D219">
-        <v>3511</v>
+        <v>3290</v>
       </c>
       <c r="E219">
         <v>0</v>
@@ -3638,10 +3638,10 @@
         <v>218</v>
       </c>
       <c r="C220">
-        <v>3504</v>
+        <v>3281</v>
       </c>
       <c r="D220">
-        <v>3525</v>
+        <v>3298</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -3652,10 +3652,10 @@
         <v>219</v>
       </c>
       <c r="C221">
-        <v>3517</v>
+        <v>3290</v>
       </c>
       <c r="D221">
-        <v>3534</v>
+        <v>3305</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -3666,10 +3666,10 @@
         <v>220</v>
       </c>
       <c r="C222">
-        <v>3526</v>
+        <v>3296</v>
       </c>
       <c r="D222">
-        <v>3547</v>
+        <v>3315</v>
       </c>
       <c r="E222">
         <v>0</v>
@@ -3680,10 +3680,10 @@
         <v>221</v>
       </c>
       <c r="C223">
-        <v>3540</v>
+        <v>3307</v>
       </c>
       <c r="D223">
-        <v>3558</v>
+        <v>3328</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -3694,10 +3694,10 @@
         <v>222</v>
       </c>
       <c r="C224">
-        <v>3550</v>
+        <v>3320</v>
       </c>
       <c r="D224">
-        <v>3564</v>
+        <v>3339</v>
       </c>
       <c r="E224">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>223</v>
       </c>
       <c r="C225">
-        <v>3557</v>
+        <v>3331</v>
       </c>
       <c r="D225">
-        <v>3580</v>
+        <v>3348</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -3722,10 +3722,10 @@
         <v>224</v>
       </c>
       <c r="C226">
-        <v>3573</v>
+        <v>3341</v>
       </c>
       <c r="D226">
-        <v>3588</v>
+        <v>3358</v>
       </c>
       <c r="E226">
         <v>0</v>
@@ -3736,10 +3736,10 @@
         <v>225</v>
       </c>
       <c r="C227">
-        <v>3580</v>
+        <v>3350</v>
       </c>
       <c r="D227">
-        <v>3605</v>
+        <v>3371</v>
       </c>
       <c r="E227">
         <v>0</v>
@@ -3750,10 +3750,10 @@
         <v>226</v>
       </c>
       <c r="C228">
-        <v>3598</v>
+        <v>3363</v>
       </c>
       <c r="D228">
-        <v>3615</v>
+        <v>3382</v>
       </c>
       <c r="E228">
         <v>0</v>
@@ -3764,10 +3764,10 @@
         <v>227</v>
       </c>
       <c r="C229">
-        <v>3609</v>
+        <v>3374</v>
       </c>
       <c r="D229">
-        <v>3629</v>
+        <v>3383</v>
       </c>
       <c r="E229">
         <v>0</v>
@@ -3778,10 +3778,10 @@
         <v>228</v>
       </c>
       <c r="C230">
-        <v>3621</v>
+        <v>3381</v>
       </c>
       <c r="D230">
-        <v>3642</v>
+        <v>3383</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -3792,10 +3792,10 @@
         <v>229</v>
       </c>
       <c r="C231">
-        <v>3634</v>
+        <v>0</v>
       </c>
       <c r="D231">
-        <v>3653</v>
+        <v>0</v>
       </c>
       <c r="E231">
         <v>0</v>
@@ -3806,10 +3806,10 @@
         <v>230</v>
       </c>
       <c r="C232">
-        <v>3646</v>
+        <v>3393</v>
       </c>
       <c r="D232">
-        <v>3665</v>
+        <v>3406</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -3820,10 +3820,10 @@
         <v>231</v>
       </c>
       <c r="C233">
-        <v>3657</v>
+        <v>3399</v>
       </c>
       <c r="D233">
-        <v>3678</v>
+        <v>3413</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -3834,10 +3834,10 @@
         <v>232</v>
       </c>
       <c r="C234">
-        <v>3670</v>
+        <v>3406</v>
       </c>
       <c r="D234">
-        <v>3690</v>
+        <v>3419</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -3848,10 +3848,10 @@
         <v>233</v>
       </c>
       <c r="C235">
-        <v>3683</v>
+        <v>0</v>
       </c>
       <c r="D235">
-        <v>3699</v>
+        <v>0</v>
       </c>
       <c r="E235">
         <v>0</v>
@@ -3862,10 +3862,10 @@
         <v>234</v>
       </c>
       <c r="C236">
-        <v>3690</v>
+        <v>3477</v>
       </c>
       <c r="D236">
-        <v>3708</v>
+        <v>3484</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -3876,10 +3876,10 @@
         <v>235</v>
       </c>
       <c r="C237">
-        <v>3701</v>
+        <v>3477</v>
       </c>
       <c r="D237">
-        <v>3720</v>
+        <v>3501</v>
       </c>
       <c r="E237">
         <v>0</v>
@@ -3890,10 +3890,10 @@
         <v>236</v>
       </c>
       <c r="C238">
-        <v>3713</v>
+        <v>3494</v>
       </c>
       <c r="D238">
-        <v>3733</v>
+        <v>3504</v>
       </c>
       <c r="E238">
         <v>0</v>
@@ -3904,362 +3904,12 @@
         <v>237</v>
       </c>
       <c r="C239">
-        <v>3725</v>
+        <v>0</v>
       </c>
       <c r="D239">
-        <v>3745</v>
+        <v>0</v>
       </c>
       <c r="E239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
-      <c r="A240" s="1">
-        <v>238</v>
-      </c>
-      <c r="C240">
-        <v>3738</v>
-      </c>
-      <c r="D240">
-        <v>3759</v>
-      </c>
-      <c r="E240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
-      <c r="A241" s="1">
-        <v>239</v>
-      </c>
-      <c r="C241">
-        <v>3750</v>
-      </c>
-      <c r="D241">
-        <v>3772</v>
-      </c>
-      <c r="E241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
-      <c r="A242" s="1">
-        <v>240</v>
-      </c>
-      <c r="C242">
-        <v>3764</v>
-      </c>
-      <c r="D242">
-        <v>3795</v>
-      </c>
-      <c r="E242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
-      <c r="A243" s="1">
-        <v>241</v>
-      </c>
-      <c r="C243">
-        <v>3788</v>
-      </c>
-      <c r="D243">
-        <v>3805</v>
-      </c>
-      <c r="E243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
-      <c r="A244" s="1">
-        <v>242</v>
-      </c>
-      <c r="C244">
-        <v>3799</v>
-      </c>
-      <c r="D244">
-        <v>3819</v>
-      </c>
-      <c r="E244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
-      <c r="A245" s="1">
-        <v>243</v>
-      </c>
-      <c r="C245">
-        <v>3811</v>
-      </c>
-      <c r="D245">
-        <v>3829</v>
-      </c>
-      <c r="E245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
-      <c r="A246" s="1">
-        <v>244</v>
-      </c>
-      <c r="C246">
-        <v>3822</v>
-      </c>
-      <c r="D246">
-        <v>3838</v>
-      </c>
-      <c r="E246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
-      <c r="A247" s="1">
-        <v>245</v>
-      </c>
-      <c r="C247">
-        <v>3830</v>
-      </c>
-      <c r="D247">
-        <v>3848</v>
-      </c>
-      <c r="E247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5">
-      <c r="A248" s="1">
-        <v>246</v>
-      </c>
-      <c r="C248">
-        <v>3840</v>
-      </c>
-      <c r="D248">
-        <v>3855</v>
-      </c>
-      <c r="E248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
-      <c r="A249" s="1">
-        <v>247</v>
-      </c>
-      <c r="C249">
-        <v>3846</v>
-      </c>
-      <c r="D249">
-        <v>3863</v>
-      </c>
-      <c r="E249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
-      <c r="A250" s="1">
-        <v>248</v>
-      </c>
-      <c r="C250">
-        <v>3855</v>
-      </c>
-      <c r="D250">
-        <v>3874</v>
-      </c>
-      <c r="E250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5">
-      <c r="A251" s="1">
-        <v>249</v>
-      </c>
-      <c r="C251">
-        <v>3866</v>
-      </c>
-      <c r="D251">
-        <v>3886</v>
-      </c>
-      <c r="E251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
-      <c r="A252" s="1">
-        <v>250</v>
-      </c>
-      <c r="C252">
-        <v>3878</v>
-      </c>
-      <c r="D252">
-        <v>3899</v>
-      </c>
-      <c r="E252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
-      <c r="A253" s="1">
-        <v>251</v>
-      </c>
-      <c r="C253">
-        <v>3891</v>
-      </c>
-      <c r="D253">
-        <v>3905</v>
-      </c>
-      <c r="E253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
-      <c r="A254" s="1">
-        <v>252</v>
-      </c>
-      <c r="C254">
-        <v>3904</v>
-      </c>
-      <c r="D254">
-        <v>3905</v>
-      </c>
-      <c r="E254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
-      <c r="A255" s="1">
-        <v>253</v>
-      </c>
-      <c r="C255">
-        <v>0</v>
-      </c>
-      <c r="D255">
-        <v>0</v>
-      </c>
-      <c r="E255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5">
-      <c r="A256" s="1">
-        <v>254</v>
-      </c>
-      <c r="C256">
-        <v>4213</v>
-      </c>
-      <c r="D256">
-        <v>4216</v>
-      </c>
-      <c r="E256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
-      <c r="A257" s="1">
-        <v>255</v>
-      </c>
-      <c r="C257">
-        <v>4213</v>
-      </c>
-      <c r="D257">
-        <v>4226</v>
-      </c>
-      <c r="E257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
-      <c r="A258" s="1">
-        <v>256</v>
-      </c>
-      <c r="C258">
-        <v>4213</v>
-      </c>
-      <c r="D258">
-        <v>4229</v>
-      </c>
-      <c r="E258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
-      <c r="A259" s="1">
-        <v>257</v>
-      </c>
-      <c r="C259">
-        <v>4218</v>
-      </c>
-      <c r="D259">
-        <v>4229</v>
-      </c>
-      <c r="E259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
-      <c r="A260" s="1">
-        <v>258</v>
-      </c>
-      <c r="C260">
-        <v>4227</v>
-      </c>
-      <c r="D260">
-        <v>4229</v>
-      </c>
-      <c r="E260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
-      <c r="A261" s="1">
-        <v>259</v>
-      </c>
-      <c r="C261">
-        <v>0</v>
-      </c>
-      <c r="D261">
-        <v>0</v>
-      </c>
-      <c r="E261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
-      <c r="A262" s="1">
-        <v>260</v>
-      </c>
-      <c r="C262">
-        <v>4329</v>
-      </c>
-      <c r="D262">
-        <v>4331</v>
-      </c>
-      <c r="E262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
-      <c r="A263" s="1">
-        <v>261</v>
-      </c>
-      <c r="C263">
-        <v>4329</v>
-      </c>
-      <c r="D263">
-        <v>4331</v>
-      </c>
-      <c r="E263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
-      <c r="A264" s="1">
-        <v>262</v>
-      </c>
-      <c r="C264">
-        <v>0</v>
-      </c>
-      <c r="D264">
-        <v>0</v>
-      </c>
-      <c r="E264">
         <v>0</v>
       </c>
     </row>
@@ -4270,7 +3920,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B262"/>
+  <dimension ref="A1:B229"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4334,7 +3984,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -4342,7 +3992,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -4350,7 +4000,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -4366,7 +4016,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -4374,7 +4024,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4382,7 +4032,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -4390,7 +4040,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -4398,7 +4048,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4406,7 +4056,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -4414,7 +4064,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -4422,7 +4072,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -4430,7 +4080,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -4438,7 +4088,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -4446,7 +4096,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -4454,7 +4104,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4462,7 +4112,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -4470,7 +4120,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -4478,7 +4128,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4486,7 +4136,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -4494,7 +4144,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -4502,7 +4152,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -4510,7 +4160,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -4518,7 +4168,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -4526,7 +4176,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -4534,7 +4184,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -4542,7 +4192,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -4550,7 +4200,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -4558,7 +4208,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4566,7 +4216,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -4574,7 +4224,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -4582,7 +4232,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -4590,7 +4240,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -4598,7 +4248,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -4606,7 +4256,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -4614,7 +4264,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -4622,7 +4272,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -4630,7 +4280,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -4638,7 +4288,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -4646,7 +4296,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -4654,7 +4304,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -4662,7 +4312,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -4670,7 +4320,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -4678,7 +4328,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -4686,7 +4336,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -4694,7 +4344,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -4702,7 +4352,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -4710,7 +4360,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -4718,7 +4368,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -4726,7 +4376,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -4734,7 +4384,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -4742,7 +4392,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -4750,7 +4400,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -4758,7 +4408,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -4766,7 +4416,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -4774,7 +4424,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -4782,7 +4432,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4790,7 +4440,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -4798,7 +4448,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -4806,7 +4456,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -4814,7 +4464,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -4822,7 +4472,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -4830,7 +4480,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -4838,7 +4488,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -4846,7 +4496,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -4854,7 +4504,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -4862,7 +4512,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -4870,7 +4520,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -4878,7 +4528,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -4886,7 +4536,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -4894,7 +4544,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -4902,7 +4552,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -4910,7 +4560,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -4918,7 +4568,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -4926,7 +4576,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -4934,7 +4584,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -4942,7 +4592,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -4950,7 +4600,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -4958,7 +4608,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -4966,7 +4616,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -4974,7 +4624,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -4982,7 +4632,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -4990,7 +4640,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -4998,7 +4648,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -5006,7 +4656,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -5014,7 +4664,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -5022,7 +4672,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -5030,7 +4680,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -5038,7 +4688,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -5046,7 +4696,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -5054,7 +4704,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -5062,7 +4712,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -5070,7 +4720,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -5078,7 +4728,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -5086,7 +4736,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -5094,7 +4744,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -5102,7 +4752,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -5110,7 +4760,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -5118,7 +4768,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -5126,7 +4776,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -5134,7 +4784,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -5142,7 +4792,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -5150,7 +4800,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -5158,7 +4808,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -5166,7 +4816,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -5174,7 +4824,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -5182,7 +4832,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -5190,7 +4840,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -5198,7 +4848,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -5206,7 +4856,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -5214,7 +4864,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -5222,7 +4872,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -5230,7 +4880,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -5238,7 +4888,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -5246,7 +4896,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -5254,7 +4904,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -5262,7 +4912,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -5270,7 +4920,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -5278,7 +4928,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -5286,7 +4936,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -5294,7 +4944,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -5302,7 +4952,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -5310,7 +4960,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -5318,7 +4968,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -5326,7 +4976,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -5334,7 +4984,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -5342,7 +4992,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -5350,7 +5000,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -5358,7 +5008,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -5366,7 +5016,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -5374,7 +5024,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -5382,7 +5032,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -5390,7 +5040,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -5398,7 +5048,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -5406,7 +5056,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -5414,7 +5064,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -5422,7 +5072,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -5430,7 +5080,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -5438,7 +5088,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -5446,7 +5096,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -5454,7 +5104,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -5462,7 +5112,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -5470,7 +5120,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -5478,7 +5128,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -5486,7 +5136,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -5494,7 +5144,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -5502,7 +5152,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -5510,7 +5160,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -5518,7 +5168,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -5526,7 +5176,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -5534,7 +5184,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -5542,7 +5192,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -5550,7 +5200,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -5558,7 +5208,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -5566,7 +5216,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -5574,7 +5224,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -5582,7 +5232,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -5590,7 +5240,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -5598,7 +5248,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -5606,7 +5256,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -5614,7 +5264,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -5622,7 +5272,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -5630,7 +5280,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -5638,7 +5288,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -5646,7 +5296,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -5654,7 +5304,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -5662,7 +5312,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -5670,7 +5320,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -5678,7 +5328,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -5686,7 +5336,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -5694,7 +5344,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -5702,7 +5352,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -5710,7 +5360,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -5718,7 +5368,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -5726,7 +5376,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -5734,7 +5384,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -5742,7 +5392,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -5750,7 +5400,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -5758,7 +5408,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -5766,7 +5416,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -5774,7 +5424,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -5782,7 +5432,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -5790,7 +5440,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -5798,7 +5448,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -5806,7 +5456,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -5814,7 +5464,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -5822,7 +5472,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -5830,7 +5480,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -5838,7 +5488,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -5846,7 +5496,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -5854,7 +5504,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -5862,7 +5512,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -5870,7 +5520,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -5878,7 +5528,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -5886,7 +5536,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -5894,7 +5544,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -5902,7 +5552,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -5910,7 +5560,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -5918,7 +5568,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -5926,7 +5576,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -5934,7 +5584,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -5942,7 +5592,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -5950,7 +5600,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -5958,7 +5608,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -5966,7 +5616,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -5974,7 +5624,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -5982,7 +5632,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -5990,7 +5640,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -5998,7 +5648,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -6006,7 +5656,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -6014,7 +5664,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -6022,7 +5672,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -6030,7 +5680,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -6038,7 +5688,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -6046,7 +5696,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -6054,7 +5704,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -6062,7 +5712,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -6070,7 +5720,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -6078,7 +5728,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -6086,7 +5736,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -6094,7 +5744,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -6102,270 +5752,6 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230" s="1">
-        <v>228</v>
-      </c>
-      <c r="B230" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231" s="1">
-        <v>229</v>
-      </c>
-      <c r="B231" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232" s="1">
-        <v>230</v>
-      </c>
-      <c r="B232" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233" s="1">
-        <v>231</v>
-      </c>
-      <c r="B233" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2">
-      <c r="A234" s="1">
-        <v>232</v>
-      </c>
-      <c r="B234" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235" s="1">
-        <v>233</v>
-      </c>
-      <c r="B235" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
-      <c r="A236" s="1">
-        <v>234</v>
-      </c>
-      <c r="B236" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237" s="1">
-        <v>235</v>
-      </c>
-      <c r="B237" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238" s="1">
-        <v>236</v>
-      </c>
-      <c r="B238" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239" s="1">
-        <v>237</v>
-      </c>
-      <c r="B239" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
-      <c r="A240" s="1">
-        <v>238</v>
-      </c>
-      <c r="B240" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
-      <c r="A241" s="1">
-        <v>239</v>
-      </c>
-      <c r="B241" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
-      <c r="A242" s="1">
-        <v>240</v>
-      </c>
-      <c r="B242" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
-      <c r="A243" s="1">
-        <v>241</v>
-      </c>
-      <c r="B243" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
-      <c r="A244" s="1">
-        <v>242</v>
-      </c>
-      <c r="B244" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
-      <c r="A245" s="1">
-        <v>243</v>
-      </c>
-      <c r="B245" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
-      <c r="A246" s="1">
-        <v>244</v>
-      </c>
-      <c r="B246" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
-      <c r="A247" s="1">
-        <v>245</v>
-      </c>
-      <c r="B247" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2">
-      <c r="A248" s="1">
-        <v>246</v>
-      </c>
-      <c r="B248" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
-      <c r="A249" s="1">
-        <v>247</v>
-      </c>
-      <c r="B249" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
-      <c r="A250" s="1">
-        <v>248</v>
-      </c>
-      <c r="B250" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
-      <c r="A251" s="1">
-        <v>249</v>
-      </c>
-      <c r="B251" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
-      <c r="A252" s="1">
-        <v>250</v>
-      </c>
-      <c r="B252" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
-      <c r="A253" s="1">
-        <v>251</v>
-      </c>
-      <c r="B253" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
-      <c r="A254" s="1">
-        <v>252</v>
-      </c>
-      <c r="B254" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
-      <c r="A255" s="1">
-        <v>253</v>
-      </c>
-      <c r="B255" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
-      <c r="A256" s="1">
-        <v>254</v>
-      </c>
-      <c r="B256" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
-      <c r="A257" s="1">
-        <v>255</v>
-      </c>
-      <c r="B257" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
-      <c r="A258" s="1">
-        <v>256</v>
-      </c>
-      <c r="B258" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259" s="1">
-        <v>257</v>
-      </c>
-      <c r="B259" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
-      <c r="A260" s="1">
-        <v>258</v>
-      </c>
-      <c r="B260" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
-      <c r="A261" s="1">
-        <v>259</v>
-      </c>
-      <c r="B261" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262" s="1">
-        <v>260</v>
-      </c>
-      <c r="B262" t="s">
         <v>61</v>
       </c>
     </row>
